--- a/03_DB設計書/データモデル設計書2023_Aチーム5_31日ヴァージョン.xlsx
+++ b/03_DB設計書/データモデル設計書2023_Aチーム5_31日ヴァージョン.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\abcc_system_sd3e_grpA\abcc_system_sd3e_grpA\03_DB設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\abcc_system_sd3e_grpA\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E06C722-62C9-48AB-83E3-94B63D1D8863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECF3A06-7229-4699-8F8E-D14D152B0EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{158BE383-CCB0-48EA-A963-29248D96480F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{158BE383-CCB0-48EA-A963-29248D96480F}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="167">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -614,12 +614,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>松崎光太郎</t>
-  </si>
-  <si>
-    <t>松﨑光太郎</t>
-  </si>
-  <si>
     <t>CRUD図名</t>
     <rPh sb="4" eb="5">
       <t>ズ</t>
@@ -765,18 +759,64 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ER図、エンティティ一覧、エンティティ定義書、CRUD図修正</t>
-    <rPh sb="10" eb="12">
+    <t>渡邊</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>松﨑</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エンティティ一覧、エンティティ定義書、CRUD図修正</t>
+    <rPh sb="6" eb="8">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="19" eb="22">
+    <rPh sb="15" eb="18">
       <t>テイギショ</t>
     </rPh>
-    <rPh sb="27" eb="28">
+    <rPh sb="23" eb="24">
       <t>ズ</t>
     </rPh>
-    <rPh sb="28" eb="30">
+    <rPh sb="24" eb="26">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2.1.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E-R図修正</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>渡邊</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>松崎、桑野</t>
+    <rPh sb="3" eb="5">
+      <t>クワノ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>松崎、桑野</t>
+    <rPh sb="0" eb="2">
+      <t>マツザキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クワノ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -788,7 +828,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2470,15 +2510,81 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2527,15 +2633,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2554,53 +2651,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2617,16 +2678,103 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2638,21 +2786,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2665,188 +2798,122 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2856,33 +2923,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="22" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="22" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3263,204 +3303,206 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL29" sqref="AL29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="3.75" style="140" customWidth="1"/>
-    <col min="5" max="6" width="3.75" style="141" customWidth="1"/>
-    <col min="7" max="32" width="3.75" style="140" customWidth="1"/>
-    <col min="33" max="36" width="3.58203125" style="140" customWidth="1"/>
-    <col min="37" max="256" width="8.08203125" style="140"/>
-    <col min="257" max="288" width="3.75" style="140" customWidth="1"/>
-    <col min="289" max="292" width="3.58203125" style="140" customWidth="1"/>
-    <col min="293" max="512" width="8.08203125" style="140"/>
-    <col min="513" max="544" width="3.75" style="140" customWidth="1"/>
-    <col min="545" max="548" width="3.58203125" style="140" customWidth="1"/>
-    <col min="549" max="768" width="8.08203125" style="140"/>
-    <col min="769" max="800" width="3.75" style="140" customWidth="1"/>
-    <col min="801" max="804" width="3.58203125" style="140" customWidth="1"/>
-    <col min="805" max="1024" width="8.08203125" style="140"/>
-    <col min="1025" max="1056" width="3.75" style="140" customWidth="1"/>
-    <col min="1057" max="1060" width="3.58203125" style="140" customWidth="1"/>
-    <col min="1061" max="1280" width="8.08203125" style="140"/>
-    <col min="1281" max="1312" width="3.75" style="140" customWidth="1"/>
-    <col min="1313" max="1316" width="3.58203125" style="140" customWidth="1"/>
-    <col min="1317" max="1536" width="8.08203125" style="140"/>
-    <col min="1537" max="1568" width="3.75" style="140" customWidth="1"/>
-    <col min="1569" max="1572" width="3.58203125" style="140" customWidth="1"/>
-    <col min="1573" max="1792" width="8.08203125" style="140"/>
-    <col min="1793" max="1824" width="3.75" style="140" customWidth="1"/>
-    <col min="1825" max="1828" width="3.58203125" style="140" customWidth="1"/>
-    <col min="1829" max="2048" width="8.08203125" style="140"/>
-    <col min="2049" max="2080" width="3.75" style="140" customWidth="1"/>
-    <col min="2081" max="2084" width="3.58203125" style="140" customWidth="1"/>
-    <col min="2085" max="2304" width="8.08203125" style="140"/>
-    <col min="2305" max="2336" width="3.75" style="140" customWidth="1"/>
-    <col min="2337" max="2340" width="3.58203125" style="140" customWidth="1"/>
-    <col min="2341" max="2560" width="8.08203125" style="140"/>
-    <col min="2561" max="2592" width="3.75" style="140" customWidth="1"/>
-    <col min="2593" max="2596" width="3.58203125" style="140" customWidth="1"/>
-    <col min="2597" max="2816" width="8.08203125" style="140"/>
-    <col min="2817" max="2848" width="3.75" style="140" customWidth="1"/>
-    <col min="2849" max="2852" width="3.58203125" style="140" customWidth="1"/>
-    <col min="2853" max="3072" width="8.08203125" style="140"/>
-    <col min="3073" max="3104" width="3.75" style="140" customWidth="1"/>
-    <col min="3105" max="3108" width="3.58203125" style="140" customWidth="1"/>
-    <col min="3109" max="3328" width="8.08203125" style="140"/>
-    <col min="3329" max="3360" width="3.75" style="140" customWidth="1"/>
-    <col min="3361" max="3364" width="3.58203125" style="140" customWidth="1"/>
-    <col min="3365" max="3584" width="8.08203125" style="140"/>
-    <col min="3585" max="3616" width="3.75" style="140" customWidth="1"/>
-    <col min="3617" max="3620" width="3.58203125" style="140" customWidth="1"/>
-    <col min="3621" max="3840" width="8.08203125" style="140"/>
-    <col min="3841" max="3872" width="3.75" style="140" customWidth="1"/>
-    <col min="3873" max="3876" width="3.58203125" style="140" customWidth="1"/>
-    <col min="3877" max="4096" width="8.08203125" style="140"/>
-    <col min="4097" max="4128" width="3.75" style="140" customWidth="1"/>
-    <col min="4129" max="4132" width="3.58203125" style="140" customWidth="1"/>
-    <col min="4133" max="4352" width="8.08203125" style="140"/>
-    <col min="4353" max="4384" width="3.75" style="140" customWidth="1"/>
-    <col min="4385" max="4388" width="3.58203125" style="140" customWidth="1"/>
-    <col min="4389" max="4608" width="8.08203125" style="140"/>
-    <col min="4609" max="4640" width="3.75" style="140" customWidth="1"/>
-    <col min="4641" max="4644" width="3.58203125" style="140" customWidth="1"/>
-    <col min="4645" max="4864" width="8.08203125" style="140"/>
-    <col min="4865" max="4896" width="3.75" style="140" customWidth="1"/>
-    <col min="4897" max="4900" width="3.58203125" style="140" customWidth="1"/>
-    <col min="4901" max="5120" width="8.08203125" style="140"/>
-    <col min="5121" max="5152" width="3.75" style="140" customWidth="1"/>
-    <col min="5153" max="5156" width="3.58203125" style="140" customWidth="1"/>
-    <col min="5157" max="5376" width="8.08203125" style="140"/>
-    <col min="5377" max="5408" width="3.75" style="140" customWidth="1"/>
-    <col min="5409" max="5412" width="3.58203125" style="140" customWidth="1"/>
-    <col min="5413" max="5632" width="8.08203125" style="140"/>
-    <col min="5633" max="5664" width="3.75" style="140" customWidth="1"/>
-    <col min="5665" max="5668" width="3.58203125" style="140" customWidth="1"/>
-    <col min="5669" max="5888" width="8.08203125" style="140"/>
-    <col min="5889" max="5920" width="3.75" style="140" customWidth="1"/>
-    <col min="5921" max="5924" width="3.58203125" style="140" customWidth="1"/>
-    <col min="5925" max="6144" width="8.08203125" style="140"/>
-    <col min="6145" max="6176" width="3.75" style="140" customWidth="1"/>
-    <col min="6177" max="6180" width="3.58203125" style="140" customWidth="1"/>
-    <col min="6181" max="6400" width="8.08203125" style="140"/>
-    <col min="6401" max="6432" width="3.75" style="140" customWidth="1"/>
-    <col min="6433" max="6436" width="3.58203125" style="140" customWidth="1"/>
-    <col min="6437" max="6656" width="8.08203125" style="140"/>
-    <col min="6657" max="6688" width="3.75" style="140" customWidth="1"/>
-    <col min="6689" max="6692" width="3.58203125" style="140" customWidth="1"/>
-    <col min="6693" max="6912" width="8.08203125" style="140"/>
-    <col min="6913" max="6944" width="3.75" style="140" customWidth="1"/>
-    <col min="6945" max="6948" width="3.58203125" style="140" customWidth="1"/>
-    <col min="6949" max="7168" width="8.08203125" style="140"/>
-    <col min="7169" max="7200" width="3.75" style="140" customWidth="1"/>
-    <col min="7201" max="7204" width="3.58203125" style="140" customWidth="1"/>
-    <col min="7205" max="7424" width="8.08203125" style="140"/>
-    <col min="7425" max="7456" width="3.75" style="140" customWidth="1"/>
-    <col min="7457" max="7460" width="3.58203125" style="140" customWidth="1"/>
-    <col min="7461" max="7680" width="8.08203125" style="140"/>
-    <col min="7681" max="7712" width="3.75" style="140" customWidth="1"/>
-    <col min="7713" max="7716" width="3.58203125" style="140" customWidth="1"/>
-    <col min="7717" max="7936" width="8.08203125" style="140"/>
-    <col min="7937" max="7968" width="3.75" style="140" customWidth="1"/>
-    <col min="7969" max="7972" width="3.58203125" style="140" customWidth="1"/>
-    <col min="7973" max="8192" width="8.08203125" style="140"/>
-    <col min="8193" max="8224" width="3.75" style="140" customWidth="1"/>
-    <col min="8225" max="8228" width="3.58203125" style="140" customWidth="1"/>
-    <col min="8229" max="8448" width="8.08203125" style="140"/>
-    <col min="8449" max="8480" width="3.75" style="140" customWidth="1"/>
-    <col min="8481" max="8484" width="3.58203125" style="140" customWidth="1"/>
-    <col min="8485" max="8704" width="8.08203125" style="140"/>
-    <col min="8705" max="8736" width="3.75" style="140" customWidth="1"/>
-    <col min="8737" max="8740" width="3.58203125" style="140" customWidth="1"/>
-    <col min="8741" max="8960" width="8.08203125" style="140"/>
-    <col min="8961" max="8992" width="3.75" style="140" customWidth="1"/>
-    <col min="8993" max="8996" width="3.58203125" style="140" customWidth="1"/>
-    <col min="8997" max="9216" width="8.08203125" style="140"/>
-    <col min="9217" max="9248" width="3.75" style="140" customWidth="1"/>
-    <col min="9249" max="9252" width="3.58203125" style="140" customWidth="1"/>
-    <col min="9253" max="9472" width="8.08203125" style="140"/>
-    <col min="9473" max="9504" width="3.75" style="140" customWidth="1"/>
-    <col min="9505" max="9508" width="3.58203125" style="140" customWidth="1"/>
-    <col min="9509" max="9728" width="8.08203125" style="140"/>
-    <col min="9729" max="9760" width="3.75" style="140" customWidth="1"/>
-    <col min="9761" max="9764" width="3.58203125" style="140" customWidth="1"/>
-    <col min="9765" max="9984" width="8.08203125" style="140"/>
-    <col min="9985" max="10016" width="3.75" style="140" customWidth="1"/>
-    <col min="10017" max="10020" width="3.58203125" style="140" customWidth="1"/>
-    <col min="10021" max="10240" width="8.08203125" style="140"/>
-    <col min="10241" max="10272" width="3.75" style="140" customWidth="1"/>
-    <col min="10273" max="10276" width="3.58203125" style="140" customWidth="1"/>
-    <col min="10277" max="10496" width="8.08203125" style="140"/>
-    <col min="10497" max="10528" width="3.75" style="140" customWidth="1"/>
-    <col min="10529" max="10532" width="3.58203125" style="140" customWidth="1"/>
-    <col min="10533" max="10752" width="8.08203125" style="140"/>
-    <col min="10753" max="10784" width="3.75" style="140" customWidth="1"/>
-    <col min="10785" max="10788" width="3.58203125" style="140" customWidth="1"/>
-    <col min="10789" max="11008" width="8.08203125" style="140"/>
-    <col min="11009" max="11040" width="3.75" style="140" customWidth="1"/>
-    <col min="11041" max="11044" width="3.58203125" style="140" customWidth="1"/>
-    <col min="11045" max="11264" width="8.08203125" style="140"/>
-    <col min="11265" max="11296" width="3.75" style="140" customWidth="1"/>
-    <col min="11297" max="11300" width="3.58203125" style="140" customWidth="1"/>
-    <col min="11301" max="11520" width="8.08203125" style="140"/>
-    <col min="11521" max="11552" width="3.75" style="140" customWidth="1"/>
-    <col min="11553" max="11556" width="3.58203125" style="140" customWidth="1"/>
-    <col min="11557" max="11776" width="8.08203125" style="140"/>
-    <col min="11777" max="11808" width="3.75" style="140" customWidth="1"/>
-    <col min="11809" max="11812" width="3.58203125" style="140" customWidth="1"/>
-    <col min="11813" max="12032" width="8.08203125" style="140"/>
-    <col min="12033" max="12064" width="3.75" style="140" customWidth="1"/>
-    <col min="12065" max="12068" width="3.58203125" style="140" customWidth="1"/>
-    <col min="12069" max="12288" width="8.08203125" style="140"/>
-    <col min="12289" max="12320" width="3.75" style="140" customWidth="1"/>
-    <col min="12321" max="12324" width="3.58203125" style="140" customWidth="1"/>
-    <col min="12325" max="12544" width="8.08203125" style="140"/>
-    <col min="12545" max="12576" width="3.75" style="140" customWidth="1"/>
-    <col min="12577" max="12580" width="3.58203125" style="140" customWidth="1"/>
-    <col min="12581" max="12800" width="8.08203125" style="140"/>
-    <col min="12801" max="12832" width="3.75" style="140" customWidth="1"/>
-    <col min="12833" max="12836" width="3.58203125" style="140" customWidth="1"/>
-    <col min="12837" max="13056" width="8.08203125" style="140"/>
-    <col min="13057" max="13088" width="3.75" style="140" customWidth="1"/>
-    <col min="13089" max="13092" width="3.58203125" style="140" customWidth="1"/>
-    <col min="13093" max="13312" width="8.08203125" style="140"/>
-    <col min="13313" max="13344" width="3.75" style="140" customWidth="1"/>
-    <col min="13345" max="13348" width="3.58203125" style="140" customWidth="1"/>
-    <col min="13349" max="13568" width="8.08203125" style="140"/>
-    <col min="13569" max="13600" width="3.75" style="140" customWidth="1"/>
-    <col min="13601" max="13604" width="3.58203125" style="140" customWidth="1"/>
-    <col min="13605" max="13824" width="8.08203125" style="140"/>
-    <col min="13825" max="13856" width="3.75" style="140" customWidth="1"/>
-    <col min="13857" max="13860" width="3.58203125" style="140" customWidth="1"/>
-    <col min="13861" max="14080" width="8.08203125" style="140"/>
-    <col min="14081" max="14112" width="3.75" style="140" customWidth="1"/>
-    <col min="14113" max="14116" width="3.58203125" style="140" customWidth="1"/>
-    <col min="14117" max="14336" width="8.08203125" style="140"/>
-    <col min="14337" max="14368" width="3.75" style="140" customWidth="1"/>
-    <col min="14369" max="14372" width="3.58203125" style="140" customWidth="1"/>
-    <col min="14373" max="14592" width="8.08203125" style="140"/>
-    <col min="14593" max="14624" width="3.75" style="140" customWidth="1"/>
-    <col min="14625" max="14628" width="3.58203125" style="140" customWidth="1"/>
-    <col min="14629" max="14848" width="8.08203125" style="140"/>
-    <col min="14849" max="14880" width="3.75" style="140" customWidth="1"/>
-    <col min="14881" max="14884" width="3.58203125" style="140" customWidth="1"/>
-    <col min="14885" max="15104" width="8.08203125" style="140"/>
-    <col min="15105" max="15136" width="3.75" style="140" customWidth="1"/>
-    <col min="15137" max="15140" width="3.58203125" style="140" customWidth="1"/>
-    <col min="15141" max="15360" width="8.08203125" style="140"/>
-    <col min="15361" max="15392" width="3.75" style="140" customWidth="1"/>
-    <col min="15393" max="15396" width="3.58203125" style="140" customWidth="1"/>
-    <col min="15397" max="15616" width="8.08203125" style="140"/>
-    <col min="15617" max="15648" width="3.75" style="140" customWidth="1"/>
-    <col min="15649" max="15652" width="3.58203125" style="140" customWidth="1"/>
-    <col min="15653" max="15872" width="8.08203125" style="140"/>
-    <col min="15873" max="15904" width="3.75" style="140" customWidth="1"/>
-    <col min="15905" max="15908" width="3.58203125" style="140" customWidth="1"/>
-    <col min="15909" max="16128" width="8.08203125" style="140"/>
-    <col min="16129" max="16160" width="3.75" style="140" customWidth="1"/>
-    <col min="16161" max="16164" width="3.58203125" style="140" customWidth="1"/>
-    <col min="16165" max="16384" width="8.08203125" style="140"/>
+    <col min="1" max="4" width="3.69921875" style="140" customWidth="1"/>
+    <col min="5" max="6" width="3.69921875" style="141" customWidth="1"/>
+    <col min="7" max="32" width="3.69921875" style="140" customWidth="1"/>
+    <col min="33" max="36" width="3.59765625" style="140" customWidth="1"/>
+    <col min="37" max="256" width="8.09765625" style="140"/>
+    <col min="257" max="288" width="3.69921875" style="140" customWidth="1"/>
+    <col min="289" max="292" width="3.59765625" style="140" customWidth="1"/>
+    <col min="293" max="512" width="8.09765625" style="140"/>
+    <col min="513" max="544" width="3.69921875" style="140" customWidth="1"/>
+    <col min="545" max="548" width="3.59765625" style="140" customWidth="1"/>
+    <col min="549" max="768" width="8.09765625" style="140"/>
+    <col min="769" max="800" width="3.69921875" style="140" customWidth="1"/>
+    <col min="801" max="804" width="3.59765625" style="140" customWidth="1"/>
+    <col min="805" max="1024" width="8.09765625" style="140"/>
+    <col min="1025" max="1056" width="3.69921875" style="140" customWidth="1"/>
+    <col min="1057" max="1060" width="3.59765625" style="140" customWidth="1"/>
+    <col min="1061" max="1280" width="8.09765625" style="140"/>
+    <col min="1281" max="1312" width="3.69921875" style="140" customWidth="1"/>
+    <col min="1313" max="1316" width="3.59765625" style="140" customWidth="1"/>
+    <col min="1317" max="1536" width="8.09765625" style="140"/>
+    <col min="1537" max="1568" width="3.69921875" style="140" customWidth="1"/>
+    <col min="1569" max="1572" width="3.59765625" style="140" customWidth="1"/>
+    <col min="1573" max="1792" width="8.09765625" style="140"/>
+    <col min="1793" max="1824" width="3.69921875" style="140" customWidth="1"/>
+    <col min="1825" max="1828" width="3.59765625" style="140" customWidth="1"/>
+    <col min="1829" max="2048" width="8.09765625" style="140"/>
+    <col min="2049" max="2080" width="3.69921875" style="140" customWidth="1"/>
+    <col min="2081" max="2084" width="3.59765625" style="140" customWidth="1"/>
+    <col min="2085" max="2304" width="8.09765625" style="140"/>
+    <col min="2305" max="2336" width="3.69921875" style="140" customWidth="1"/>
+    <col min="2337" max="2340" width="3.59765625" style="140" customWidth="1"/>
+    <col min="2341" max="2560" width="8.09765625" style="140"/>
+    <col min="2561" max="2592" width="3.69921875" style="140" customWidth="1"/>
+    <col min="2593" max="2596" width="3.59765625" style="140" customWidth="1"/>
+    <col min="2597" max="2816" width="8.09765625" style="140"/>
+    <col min="2817" max="2848" width="3.69921875" style="140" customWidth="1"/>
+    <col min="2849" max="2852" width="3.59765625" style="140" customWidth="1"/>
+    <col min="2853" max="3072" width="8.09765625" style="140"/>
+    <col min="3073" max="3104" width="3.69921875" style="140" customWidth="1"/>
+    <col min="3105" max="3108" width="3.59765625" style="140" customWidth="1"/>
+    <col min="3109" max="3328" width="8.09765625" style="140"/>
+    <col min="3329" max="3360" width="3.69921875" style="140" customWidth="1"/>
+    <col min="3361" max="3364" width="3.59765625" style="140" customWidth="1"/>
+    <col min="3365" max="3584" width="8.09765625" style="140"/>
+    <col min="3585" max="3616" width="3.69921875" style="140" customWidth="1"/>
+    <col min="3617" max="3620" width="3.59765625" style="140" customWidth="1"/>
+    <col min="3621" max="3840" width="8.09765625" style="140"/>
+    <col min="3841" max="3872" width="3.69921875" style="140" customWidth="1"/>
+    <col min="3873" max="3876" width="3.59765625" style="140" customWidth="1"/>
+    <col min="3877" max="4096" width="8.09765625" style="140"/>
+    <col min="4097" max="4128" width="3.69921875" style="140" customWidth="1"/>
+    <col min="4129" max="4132" width="3.59765625" style="140" customWidth="1"/>
+    <col min="4133" max="4352" width="8.09765625" style="140"/>
+    <col min="4353" max="4384" width="3.69921875" style="140" customWidth="1"/>
+    <col min="4385" max="4388" width="3.59765625" style="140" customWidth="1"/>
+    <col min="4389" max="4608" width="8.09765625" style="140"/>
+    <col min="4609" max="4640" width="3.69921875" style="140" customWidth="1"/>
+    <col min="4641" max="4644" width="3.59765625" style="140" customWidth="1"/>
+    <col min="4645" max="4864" width="8.09765625" style="140"/>
+    <col min="4865" max="4896" width="3.69921875" style="140" customWidth="1"/>
+    <col min="4897" max="4900" width="3.59765625" style="140" customWidth="1"/>
+    <col min="4901" max="5120" width="8.09765625" style="140"/>
+    <col min="5121" max="5152" width="3.69921875" style="140" customWidth="1"/>
+    <col min="5153" max="5156" width="3.59765625" style="140" customWidth="1"/>
+    <col min="5157" max="5376" width="8.09765625" style="140"/>
+    <col min="5377" max="5408" width="3.69921875" style="140" customWidth="1"/>
+    <col min="5409" max="5412" width="3.59765625" style="140" customWidth="1"/>
+    <col min="5413" max="5632" width="8.09765625" style="140"/>
+    <col min="5633" max="5664" width="3.69921875" style="140" customWidth="1"/>
+    <col min="5665" max="5668" width="3.59765625" style="140" customWidth="1"/>
+    <col min="5669" max="5888" width="8.09765625" style="140"/>
+    <col min="5889" max="5920" width="3.69921875" style="140" customWidth="1"/>
+    <col min="5921" max="5924" width="3.59765625" style="140" customWidth="1"/>
+    <col min="5925" max="6144" width="8.09765625" style="140"/>
+    <col min="6145" max="6176" width="3.69921875" style="140" customWidth="1"/>
+    <col min="6177" max="6180" width="3.59765625" style="140" customWidth="1"/>
+    <col min="6181" max="6400" width="8.09765625" style="140"/>
+    <col min="6401" max="6432" width="3.69921875" style="140" customWidth="1"/>
+    <col min="6433" max="6436" width="3.59765625" style="140" customWidth="1"/>
+    <col min="6437" max="6656" width="8.09765625" style="140"/>
+    <col min="6657" max="6688" width="3.69921875" style="140" customWidth="1"/>
+    <col min="6689" max="6692" width="3.59765625" style="140" customWidth="1"/>
+    <col min="6693" max="6912" width="8.09765625" style="140"/>
+    <col min="6913" max="6944" width="3.69921875" style="140" customWidth="1"/>
+    <col min="6945" max="6948" width="3.59765625" style="140" customWidth="1"/>
+    <col min="6949" max="7168" width="8.09765625" style="140"/>
+    <col min="7169" max="7200" width="3.69921875" style="140" customWidth="1"/>
+    <col min="7201" max="7204" width="3.59765625" style="140" customWidth="1"/>
+    <col min="7205" max="7424" width="8.09765625" style="140"/>
+    <col min="7425" max="7456" width="3.69921875" style="140" customWidth="1"/>
+    <col min="7457" max="7460" width="3.59765625" style="140" customWidth="1"/>
+    <col min="7461" max="7680" width="8.09765625" style="140"/>
+    <col min="7681" max="7712" width="3.69921875" style="140" customWidth="1"/>
+    <col min="7713" max="7716" width="3.59765625" style="140" customWidth="1"/>
+    <col min="7717" max="7936" width="8.09765625" style="140"/>
+    <col min="7937" max="7968" width="3.69921875" style="140" customWidth="1"/>
+    <col min="7969" max="7972" width="3.59765625" style="140" customWidth="1"/>
+    <col min="7973" max="8192" width="8.09765625" style="140"/>
+    <col min="8193" max="8224" width="3.69921875" style="140" customWidth="1"/>
+    <col min="8225" max="8228" width="3.59765625" style="140" customWidth="1"/>
+    <col min="8229" max="8448" width="8.09765625" style="140"/>
+    <col min="8449" max="8480" width="3.69921875" style="140" customWidth="1"/>
+    <col min="8481" max="8484" width="3.59765625" style="140" customWidth="1"/>
+    <col min="8485" max="8704" width="8.09765625" style="140"/>
+    <col min="8705" max="8736" width="3.69921875" style="140" customWidth="1"/>
+    <col min="8737" max="8740" width="3.59765625" style="140" customWidth="1"/>
+    <col min="8741" max="8960" width="8.09765625" style="140"/>
+    <col min="8961" max="8992" width="3.69921875" style="140" customWidth="1"/>
+    <col min="8993" max="8996" width="3.59765625" style="140" customWidth="1"/>
+    <col min="8997" max="9216" width="8.09765625" style="140"/>
+    <col min="9217" max="9248" width="3.69921875" style="140" customWidth="1"/>
+    <col min="9249" max="9252" width="3.59765625" style="140" customWidth="1"/>
+    <col min="9253" max="9472" width="8.09765625" style="140"/>
+    <col min="9473" max="9504" width="3.69921875" style="140" customWidth="1"/>
+    <col min="9505" max="9508" width="3.59765625" style="140" customWidth="1"/>
+    <col min="9509" max="9728" width="8.09765625" style="140"/>
+    <col min="9729" max="9760" width="3.69921875" style="140" customWidth="1"/>
+    <col min="9761" max="9764" width="3.59765625" style="140" customWidth="1"/>
+    <col min="9765" max="9984" width="8.09765625" style="140"/>
+    <col min="9985" max="10016" width="3.69921875" style="140" customWidth="1"/>
+    <col min="10017" max="10020" width="3.59765625" style="140" customWidth="1"/>
+    <col min="10021" max="10240" width="8.09765625" style="140"/>
+    <col min="10241" max="10272" width="3.69921875" style="140" customWidth="1"/>
+    <col min="10273" max="10276" width="3.59765625" style="140" customWidth="1"/>
+    <col min="10277" max="10496" width="8.09765625" style="140"/>
+    <col min="10497" max="10528" width="3.69921875" style="140" customWidth="1"/>
+    <col min="10529" max="10532" width="3.59765625" style="140" customWidth="1"/>
+    <col min="10533" max="10752" width="8.09765625" style="140"/>
+    <col min="10753" max="10784" width="3.69921875" style="140" customWidth="1"/>
+    <col min="10785" max="10788" width="3.59765625" style="140" customWidth="1"/>
+    <col min="10789" max="11008" width="8.09765625" style="140"/>
+    <col min="11009" max="11040" width="3.69921875" style="140" customWidth="1"/>
+    <col min="11041" max="11044" width="3.59765625" style="140" customWidth="1"/>
+    <col min="11045" max="11264" width="8.09765625" style="140"/>
+    <col min="11265" max="11296" width="3.69921875" style="140" customWidth="1"/>
+    <col min="11297" max="11300" width="3.59765625" style="140" customWidth="1"/>
+    <col min="11301" max="11520" width="8.09765625" style="140"/>
+    <col min="11521" max="11552" width="3.69921875" style="140" customWidth="1"/>
+    <col min="11553" max="11556" width="3.59765625" style="140" customWidth="1"/>
+    <col min="11557" max="11776" width="8.09765625" style="140"/>
+    <col min="11777" max="11808" width="3.69921875" style="140" customWidth="1"/>
+    <col min="11809" max="11812" width="3.59765625" style="140" customWidth="1"/>
+    <col min="11813" max="12032" width="8.09765625" style="140"/>
+    <col min="12033" max="12064" width="3.69921875" style="140" customWidth="1"/>
+    <col min="12065" max="12068" width="3.59765625" style="140" customWidth="1"/>
+    <col min="12069" max="12288" width="8.09765625" style="140"/>
+    <col min="12289" max="12320" width="3.69921875" style="140" customWidth="1"/>
+    <col min="12321" max="12324" width="3.59765625" style="140" customWidth="1"/>
+    <col min="12325" max="12544" width="8.09765625" style="140"/>
+    <col min="12545" max="12576" width="3.69921875" style="140" customWidth="1"/>
+    <col min="12577" max="12580" width="3.59765625" style="140" customWidth="1"/>
+    <col min="12581" max="12800" width="8.09765625" style="140"/>
+    <col min="12801" max="12832" width="3.69921875" style="140" customWidth="1"/>
+    <col min="12833" max="12836" width="3.59765625" style="140" customWidth="1"/>
+    <col min="12837" max="13056" width="8.09765625" style="140"/>
+    <col min="13057" max="13088" width="3.69921875" style="140" customWidth="1"/>
+    <col min="13089" max="13092" width="3.59765625" style="140" customWidth="1"/>
+    <col min="13093" max="13312" width="8.09765625" style="140"/>
+    <col min="13313" max="13344" width="3.69921875" style="140" customWidth="1"/>
+    <col min="13345" max="13348" width="3.59765625" style="140" customWidth="1"/>
+    <col min="13349" max="13568" width="8.09765625" style="140"/>
+    <col min="13569" max="13600" width="3.69921875" style="140" customWidth="1"/>
+    <col min="13601" max="13604" width="3.59765625" style="140" customWidth="1"/>
+    <col min="13605" max="13824" width="8.09765625" style="140"/>
+    <col min="13825" max="13856" width="3.69921875" style="140" customWidth="1"/>
+    <col min="13857" max="13860" width="3.59765625" style="140" customWidth="1"/>
+    <col min="13861" max="14080" width="8.09765625" style="140"/>
+    <col min="14081" max="14112" width="3.69921875" style="140" customWidth="1"/>
+    <col min="14113" max="14116" width="3.59765625" style="140" customWidth="1"/>
+    <col min="14117" max="14336" width="8.09765625" style="140"/>
+    <col min="14337" max="14368" width="3.69921875" style="140" customWidth="1"/>
+    <col min="14369" max="14372" width="3.59765625" style="140" customWidth="1"/>
+    <col min="14373" max="14592" width="8.09765625" style="140"/>
+    <col min="14593" max="14624" width="3.69921875" style="140" customWidth="1"/>
+    <col min="14625" max="14628" width="3.59765625" style="140" customWidth="1"/>
+    <col min="14629" max="14848" width="8.09765625" style="140"/>
+    <col min="14849" max="14880" width="3.69921875" style="140" customWidth="1"/>
+    <col min="14881" max="14884" width="3.59765625" style="140" customWidth="1"/>
+    <col min="14885" max="15104" width="8.09765625" style="140"/>
+    <col min="15105" max="15136" width="3.69921875" style="140" customWidth="1"/>
+    <col min="15137" max="15140" width="3.59765625" style="140" customWidth="1"/>
+    <col min="15141" max="15360" width="8.09765625" style="140"/>
+    <col min="15361" max="15392" width="3.69921875" style="140" customWidth="1"/>
+    <col min="15393" max="15396" width="3.59765625" style="140" customWidth="1"/>
+    <col min="15397" max="15616" width="8.09765625" style="140"/>
+    <col min="15617" max="15648" width="3.69921875" style="140" customWidth="1"/>
+    <col min="15649" max="15652" width="3.59765625" style="140" customWidth="1"/>
+    <col min="15653" max="15872" width="8.09765625" style="140"/>
+    <col min="15873" max="15904" width="3.69921875" style="140" customWidth="1"/>
+    <col min="15905" max="15908" width="3.59765625" style="140" customWidth="1"/>
+    <col min="15909" max="16128" width="8.09765625" style="140"/>
+    <col min="16129" max="16160" width="3.69921875" style="140" customWidth="1"/>
+    <col min="16161" max="16164" width="3.59765625" style="140" customWidth="1"/>
+    <col min="16165" max="16384" width="8.09765625" style="140"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:176" ht="15.75" customHeight="1">
@@ -3698,18 +3740,18 @@
       <c r="U3" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="165"/>
-      <c r="W3" s="166">
+      <c r="V3" s="166"/>
+      <c r="W3" s="189">
         <v>45040</v>
       </c>
-      <c r="X3" s="167"/>
-      <c r="Y3" s="167"/>
-      <c r="Z3" s="167"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="167"/>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="166"/>
       <c r="AF3" s="142"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3821,20 +3863,20 @@
       <c r="C7" s="149"/>
       <c r="D7" s="149"/>
       <c r="E7" s="148"/>
-      <c r="F7" s="168" t="s">
+      <c r="F7" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="169"/>
-      <c r="H7" s="169"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="170"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="191"/>
+      <c r="O7" s="191"/>
+      <c r="P7" s="191"/>
+      <c r="Q7" s="192"/>
       <c r="R7" s="142"/>
       <c r="S7" s="142"/>
       <c r="T7" s="142"/>
@@ -3852,86 +3894,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="142"/>
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="177" t="s">
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="179"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="200"/>
+      <c r="Q8" s="201"/>
       <c r="R8" s="142"/>
       <c r="S8" s="142"/>
       <c r="T8" s="142"/>
       <c r="U8" s="142"/>
       <c r="V8" s="142"/>
-      <c r="W8" s="183" t="s">
+      <c r="W8" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="183"/>
-      <c r="Y8" s="183"/>
-      <c r="Z8" s="183" t="s">
+      <c r="X8" s="205"/>
+      <c r="Y8" s="205"/>
+      <c r="Z8" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="183"/>
-      <c r="AB8" s="183"/>
-      <c r="AC8" s="183" t="s">
+      <c r="AA8" s="205"/>
+      <c r="AB8" s="205"/>
+      <c r="AC8" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="183"/>
-      <c r="AE8" s="183"/>
+      <c r="AD8" s="205"/>
+      <c r="AE8" s="205"/>
       <c r="AF8" s="142"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="142"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="182"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="203"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="204"/>
       <c r="R9" s="142"/>
       <c r="S9" s="142"/>
       <c r="T9" s="142"/>
       <c r="U9" s="142"/>
       <c r="V9" s="142"/>
-      <c r="W9" s="184" t="s">
+      <c r="W9" s="186" t="s">
+        <v>144</v>
+      </c>
+      <c r="X9" s="187"/>
+      <c r="Y9" s="188"/>
+      <c r="Z9" s="186" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA9" s="187"/>
+      <c r="AB9" s="188"/>
+      <c r="AC9" s="186" t="s">
         <v>146</v>
       </c>
-      <c r="X9" s="185"/>
-      <c r="Y9" s="186"/>
-      <c r="Z9" s="184" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA9" s="185"/>
-      <c r="AB9" s="186"/>
-      <c r="AC9" s="184" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD9" s="185"/>
-      <c r="AE9" s="186"/>
+      <c r="AD9" s="187"/>
+      <c r="AE9" s="188"/>
       <c r="AF9" s="142"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3957,15 +3999,15 @@
       <c r="T10" s="142"/>
       <c r="U10" s="142"/>
       <c r="V10" s="142"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="188"/>
-      <c r="Y10" s="189"/>
-      <c r="Z10" s="187"/>
-      <c r="AA10" s="188"/>
-      <c r="AB10" s="189"/>
-      <c r="AC10" s="187"/>
-      <c r="AD10" s="188"/>
-      <c r="AE10" s="189"/>
+      <c r="W10" s="206"/>
+      <c r="X10" s="207"/>
+      <c r="Y10" s="208"/>
+      <c r="Z10" s="206"/>
+      <c r="AA10" s="207"/>
+      <c r="AB10" s="208"/>
+      <c r="AC10" s="206"/>
+      <c r="AD10" s="207"/>
+      <c r="AE10" s="208"/>
       <c r="AF10" s="142"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -3991,15 +4033,15 @@
       <c r="T11" s="142"/>
       <c r="U11" s="142"/>
       <c r="V11" s="142"/>
-      <c r="W11" s="187"/>
-      <c r="X11" s="188"/>
-      <c r="Y11" s="189"/>
-      <c r="Z11" s="187"/>
-      <c r="AA11" s="188"/>
-      <c r="AB11" s="189"/>
-      <c r="AC11" s="187"/>
-      <c r="AD11" s="188"/>
-      <c r="AE11" s="189"/>
+      <c r="W11" s="206"/>
+      <c r="X11" s="207"/>
+      <c r="Y11" s="208"/>
+      <c r="Z11" s="206"/>
+      <c r="AA11" s="207"/>
+      <c r="AB11" s="208"/>
+      <c r="AC11" s="206"/>
+      <c r="AD11" s="207"/>
+      <c r="AE11" s="208"/>
       <c r="AF11" s="142"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4025,15 +4067,15 @@
       <c r="T12" s="146"/>
       <c r="U12" s="146"/>
       <c r="V12" s="146"/>
-      <c r="W12" s="190"/>
-      <c r="X12" s="191"/>
-      <c r="Y12" s="192"/>
-      <c r="Z12" s="190"/>
-      <c r="AA12" s="191"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="190"/>
-      <c r="AD12" s="191"/>
-      <c r="AE12" s="192"/>
+      <c r="W12" s="209"/>
+      <c r="X12" s="210"/>
+      <c r="Y12" s="211"/>
+      <c r="Z12" s="209"/>
+      <c r="AA12" s="210"/>
+      <c r="AB12" s="211"/>
+      <c r="AC12" s="209"/>
+      <c r="AD12" s="210"/>
+      <c r="AE12" s="211"/>
       <c r="AF12" s="142"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4128,106 +4170,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="142"/>
-      <c r="B16" s="193" t="s">
+      <c r="B16" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
-      <c r="M16" s="193"/>
-      <c r="N16" s="193"/>
-      <c r="O16" s="193"/>
-      <c r="P16" s="193"/>
-      <c r="Q16" s="193"/>
-      <c r="R16" s="193"/>
-      <c r="S16" s="193"/>
-      <c r="T16" s="193"/>
-      <c r="U16" s="193"/>
-      <c r="V16" s="193"/>
-      <c r="W16" s="193"/>
-      <c r="X16" s="193"/>
-      <c r="Y16" s="193"/>
-      <c r="Z16" s="193"/>
-      <c r="AA16" s="193"/>
-      <c r="AB16" s="193"/>
-      <c r="AC16" s="193"/>
-      <c r="AD16" s="193"/>
-      <c r="AE16" s="193"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="185"/>
+      <c r="L16" s="185"/>
+      <c r="M16" s="185"/>
+      <c r="N16" s="185"/>
+      <c r="O16" s="185"/>
+      <c r="P16" s="185"/>
+      <c r="Q16" s="185"/>
+      <c r="R16" s="185"/>
+      <c r="S16" s="185"/>
+      <c r="T16" s="185"/>
+      <c r="U16" s="185"/>
+      <c r="V16" s="185"/>
+      <c r="W16" s="185"/>
+      <c r="X16" s="185"/>
+      <c r="Y16" s="185"/>
+      <c r="Z16" s="185"/>
+      <c r="AA16" s="185"/>
+      <c r="AB16" s="185"/>
+      <c r="AC16" s="185"/>
+      <c r="AD16" s="185"/>
+      <c r="AE16" s="185"/>
       <c r="AF16" s="142"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="142"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="193"/>
-      <c r="M17" s="193"/>
-      <c r="N17" s="193"/>
-      <c r="O17" s="193"/>
-      <c r="P17" s="193"/>
-      <c r="Q17" s="193"/>
-      <c r="R17" s="193"/>
-      <c r="S17" s="193"/>
-      <c r="T17" s="193"/>
-      <c r="U17" s="193"/>
-      <c r="V17" s="193"/>
-      <c r="W17" s="193"/>
-      <c r="X17" s="193"/>
-      <c r="Y17" s="193"/>
-      <c r="Z17" s="193"/>
-      <c r="AA17" s="193"/>
-      <c r="AB17" s="193"/>
-      <c r="AC17" s="193"/>
-      <c r="AD17" s="193"/>
-      <c r="AE17" s="193"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="185"/>
+      <c r="L17" s="185"/>
+      <c r="M17" s="185"/>
+      <c r="N17" s="185"/>
+      <c r="O17" s="185"/>
+      <c r="P17" s="185"/>
+      <c r="Q17" s="185"/>
+      <c r="R17" s="185"/>
+      <c r="S17" s="185"/>
+      <c r="T17" s="185"/>
+      <c r="U17" s="185"/>
+      <c r="V17" s="185"/>
+      <c r="W17" s="185"/>
+      <c r="X17" s="185"/>
+      <c r="Y17" s="185"/>
+      <c r="Z17" s="185"/>
+      <c r="AA17" s="185"/>
+      <c r="AB17" s="185"/>
+      <c r="AC17" s="185"/>
+      <c r="AD17" s="185"/>
+      <c r="AE17" s="185"/>
       <c r="AF17" s="142"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="142"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="193"/>
-      <c r="M18" s="193"/>
-      <c r="N18" s="193"/>
-      <c r="O18" s="193"/>
-      <c r="P18" s="193"/>
-      <c r="Q18" s="193"/>
-      <c r="R18" s="193"/>
-      <c r="S18" s="193"/>
-      <c r="T18" s="193"/>
-      <c r="U18" s="193"/>
-      <c r="V18" s="193"/>
-      <c r="W18" s="193"/>
-      <c r="X18" s="193"/>
-      <c r="Y18" s="193"/>
-      <c r="Z18" s="193"/>
-      <c r="AA18" s="193"/>
-      <c r="AB18" s="193"/>
-      <c r="AC18" s="193"/>
-      <c r="AD18" s="193"/>
-      <c r="AE18" s="193"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="185"/>
+      <c r="M18" s="185"/>
+      <c r="N18" s="185"/>
+      <c r="O18" s="185"/>
+      <c r="P18" s="185"/>
+      <c r="Q18" s="185"/>
+      <c r="R18" s="185"/>
+      <c r="S18" s="185"/>
+      <c r="T18" s="185"/>
+      <c r="U18" s="185"/>
+      <c r="V18" s="185"/>
+      <c r="W18" s="185"/>
+      <c r="X18" s="185"/>
+      <c r="Y18" s="185"/>
+      <c r="Z18" s="185"/>
+      <c r="AA18" s="185"/>
+      <c r="AB18" s="185"/>
+      <c r="AC18" s="185"/>
+      <c r="AD18" s="185"/>
+      <c r="AE18" s="185"/>
       <c r="AF18" s="142"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4369,421 +4411,429 @@
       <c r="B23" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="165"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="166"/>
       <c r="F23" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="166"/>
       <c r="J23" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="167"/>
-      <c r="L23" s="167"/>
-      <c r="M23" s="167"/>
-      <c r="N23" s="167"/>
-      <c r="O23" s="167"/>
-      <c r="P23" s="167"/>
-      <c r="Q23" s="167"/>
-      <c r="R23" s="167"/>
-      <c r="S23" s="167"/>
-      <c r="T23" s="167"/>
-      <c r="U23" s="167"/>
-      <c r="V23" s="167"/>
-      <c r="W23" s="167"/>
-      <c r="X23" s="167"/>
-      <c r="Y23" s="167"/>
-      <c r="Z23" s="167"/>
-      <c r="AA23" s="167"/>
-      <c r="AB23" s="165"/>
-      <c r="AC23" s="184" t="s">
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="165"/>
+      <c r="P23" s="165"/>
+      <c r="Q23" s="165"/>
+      <c r="R23" s="165"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="165"/>
+      <c r="U23" s="165"/>
+      <c r="V23" s="165"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="165"/>
+      <c r="Y23" s="165"/>
+      <c r="Z23" s="165"/>
+      <c r="AA23" s="165"/>
+      <c r="AB23" s="166"/>
+      <c r="AC23" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="185"/>
-      <c r="AE23" s="186"/>
+      <c r="AD23" s="187"/>
+      <c r="AE23" s="188"/>
       <c r="AF23" s="144"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="142"/>
-      <c r="B24" s="300" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="301"/>
-      <c r="D24" s="301"/>
-      <c r="E24" s="302"/>
-      <c r="F24" s="194">
+      <c r="B24" s="182" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="167">
         <v>45040</v>
       </c>
-      <c r="G24" s="195"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="197" t="s">
+      <c r="G24" s="168"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="198"/>
-      <c r="L24" s="198"/>
-      <c r="M24" s="198"/>
-      <c r="N24" s="198"/>
-      <c r="O24" s="198"/>
-      <c r="P24" s="198"/>
-      <c r="Q24" s="198"/>
-      <c r="R24" s="198"/>
-      <c r="S24" s="198"/>
-      <c r="T24" s="198"/>
-      <c r="U24" s="198"/>
-      <c r="V24" s="198"/>
-      <c r="W24" s="198"/>
-      <c r="X24" s="198"/>
-      <c r="Y24" s="198"/>
-      <c r="Z24" s="198"/>
-      <c r="AA24" s="198"/>
-      <c r="AB24" s="198"/>
-      <c r="AC24" s="199" t="s">
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
+      <c r="P24" s="171"/>
+      <c r="Q24" s="171"/>
+      <c r="R24" s="171"/>
+      <c r="S24" s="171"/>
+      <c r="T24" s="171"/>
+      <c r="U24" s="171"/>
+      <c r="V24" s="171"/>
+      <c r="W24" s="171"/>
+      <c r="X24" s="171"/>
+      <c r="Y24" s="171"/>
+      <c r="Z24" s="171"/>
+      <c r="AA24" s="171"/>
+      <c r="AB24" s="171"/>
+      <c r="AC24" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="AD24" s="199"/>
-      <c r="AE24" s="199"/>
+      <c r="AD24" s="178"/>
+      <c r="AE24" s="178"/>
       <c r="AF24" s="142"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="142"/>
       <c r="B25" s="164" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="200">
+        <v>153</v>
+      </c>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="174">
         <v>45041</v>
       </c>
-      <c r="G25" s="201"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="197" t="s">
-        <v>159</v>
-      </c>
-      <c r="K25" s="198"/>
-      <c r="L25" s="198"/>
-      <c r="M25" s="198"/>
-      <c r="N25" s="198"/>
-      <c r="O25" s="198"/>
-      <c r="P25" s="198"/>
-      <c r="Q25" s="198"/>
-      <c r="R25" s="198"/>
-      <c r="S25" s="198"/>
-      <c r="T25" s="198"/>
-      <c r="U25" s="198"/>
-      <c r="V25" s="198"/>
-      <c r="W25" s="198"/>
-      <c r="X25" s="198"/>
-      <c r="Y25" s="198"/>
-      <c r="Z25" s="198"/>
-      <c r="AA25" s="198"/>
-      <c r="AB25" s="198"/>
-      <c r="AC25" s="203" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD25" s="203"/>
-      <c r="AE25" s="203"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="170" t="s">
+        <v>157</v>
+      </c>
+      <c r="K25" s="171"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="171"/>
+      <c r="P25" s="171"/>
+      <c r="Q25" s="171"/>
+      <c r="R25" s="171"/>
+      <c r="S25" s="171"/>
+      <c r="T25" s="171"/>
+      <c r="U25" s="171"/>
+      <c r="V25" s="171"/>
+      <c r="W25" s="171"/>
+      <c r="X25" s="171"/>
+      <c r="Y25" s="171"/>
+      <c r="Z25" s="171"/>
+      <c r="AA25" s="171"/>
+      <c r="AB25" s="171"/>
+      <c r="AC25" s="172" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD25" s="172"/>
+      <c r="AE25" s="172"/>
       <c r="AF25" s="142"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="142"/>
       <c r="B26" s="164" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="200">
+        <v>155</v>
+      </c>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="174">
         <v>45042</v>
       </c>
-      <c r="G26" s="201"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="204" t="s">
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="204"/>
-      <c r="L26" s="204"/>
-      <c r="M26" s="204"/>
-      <c r="N26" s="204"/>
-      <c r="O26" s="204"/>
-      <c r="P26" s="204"/>
-      <c r="Q26" s="204"/>
-      <c r="R26" s="204"/>
-      <c r="S26" s="204"/>
-      <c r="T26" s="204"/>
-      <c r="U26" s="204"/>
-      <c r="V26" s="204"/>
-      <c r="W26" s="204"/>
-      <c r="X26" s="204"/>
-      <c r="Y26" s="204"/>
-      <c r="Z26" s="204"/>
-      <c r="AA26" s="204"/>
-      <c r="AB26" s="204"/>
-      <c r="AC26" s="205" t="s">
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="176"/>
+      <c r="O26" s="176"/>
+      <c r="P26" s="176"/>
+      <c r="Q26" s="176"/>
+      <c r="R26" s="176"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
+      <c r="U26" s="176"/>
+      <c r="V26" s="176"/>
+      <c r="W26" s="176"/>
+      <c r="X26" s="176"/>
+      <c r="Y26" s="176"/>
+      <c r="Z26" s="176"/>
+      <c r="AA26" s="176"/>
+      <c r="AB26" s="176"/>
+      <c r="AC26" s="177" t="s">
         <v>16</v>
       </c>
-      <c r="AD26" s="199"/>
-      <c r="AE26" s="199"/>
+      <c r="AD26" s="178"/>
+      <c r="AE26" s="178"/>
       <c r="AF26" s="142"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="142"/>
       <c r="B27" s="164" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="200">
+        <v>156</v>
+      </c>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="174">
         <v>45043</v>
       </c>
-      <c r="G27" s="201"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="202"/>
-      <c r="J27" s="206" t="s">
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="207"/>
-      <c r="L27" s="207"/>
-      <c r="M27" s="207"/>
-      <c r="N27" s="207"/>
-      <c r="O27" s="207"/>
-      <c r="P27" s="207"/>
-      <c r="Q27" s="207"/>
-      <c r="R27" s="207"/>
-      <c r="S27" s="207"/>
-      <c r="T27" s="207"/>
-      <c r="U27" s="207"/>
-      <c r="V27" s="207"/>
-      <c r="W27" s="207"/>
-      <c r="X27" s="207"/>
-      <c r="Y27" s="207"/>
-      <c r="Z27" s="207"/>
-      <c r="AA27" s="207"/>
-      <c r="AB27" s="207"/>
-      <c r="AC27" s="199" t="s">
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="181"/>
+      <c r="S27" s="181"/>
+      <c r="T27" s="181"/>
+      <c r="U27" s="181"/>
+      <c r="V27" s="181"/>
+      <c r="W27" s="181"/>
+      <c r="X27" s="181"/>
+      <c r="Y27" s="181"/>
+      <c r="Z27" s="181"/>
+      <c r="AA27" s="181"/>
+      <c r="AB27" s="181"/>
+      <c r="AC27" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="AD27" s="199"/>
-      <c r="AE27" s="199"/>
+      <c r="AD27" s="178"/>
+      <c r="AE27" s="178"/>
       <c r="AF27" s="142"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="142"/>
       <c r="B28" s="164" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="194">
+        <v>158</v>
+      </c>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="167">
         <v>45077</v>
       </c>
-      <c r="G28" s="195"/>
-      <c r="H28" s="195"/>
-      <c r="I28" s="196"/>
-      <c r="J28" s="197" t="s">
+      <c r="G28" s="168"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="170" t="s">
         <v>161</v>
       </c>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="198"/>
-      <c r="N28" s="198"/>
-      <c r="O28" s="198"/>
-      <c r="P28" s="198"/>
-      <c r="Q28" s="198"/>
-      <c r="R28" s="198"/>
-      <c r="S28" s="198"/>
-      <c r="T28" s="198"/>
-      <c r="U28" s="198"/>
-      <c r="V28" s="198"/>
-      <c r="W28" s="198"/>
-      <c r="X28" s="198"/>
-      <c r="Y28" s="198"/>
-      <c r="Z28" s="198"/>
-      <c r="AA28" s="198"/>
-      <c r="AB28" s="198"/>
-      <c r="AC28" s="203" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD28" s="203"/>
-      <c r="AE28" s="203"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="171"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="171"/>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="171"/>
+      <c r="R28" s="171"/>
+      <c r="S28" s="171"/>
+      <c r="T28" s="171"/>
+      <c r="U28" s="171"/>
+      <c r="V28" s="171"/>
+      <c r="W28" s="171"/>
+      <c r="X28" s="171"/>
+      <c r="Y28" s="171"/>
+      <c r="Z28" s="171"/>
+      <c r="AA28" s="171"/>
+      <c r="AB28" s="171"/>
+      <c r="AC28" s="172" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD28" s="172"/>
+      <c r="AE28" s="172"/>
       <c r="AF28" s="142"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="142"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="195"/>
-      <c r="H29" s="195"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="198"/>
-      <c r="L29" s="198"/>
-      <c r="M29" s="198"/>
-      <c r="N29" s="198"/>
-      <c r="O29" s="198"/>
-      <c r="P29" s="198"/>
-      <c r="Q29" s="198"/>
-      <c r="R29" s="198"/>
-      <c r="S29" s="198"/>
-      <c r="T29" s="198"/>
-      <c r="U29" s="198"/>
-      <c r="V29" s="198"/>
-      <c r="W29" s="198"/>
-      <c r="X29" s="198"/>
-      <c r="Y29" s="198"/>
-      <c r="Z29" s="198"/>
-      <c r="AA29" s="198"/>
-      <c r="AB29" s="198"/>
-      <c r="AC29" s="203"/>
-      <c r="AD29" s="203"/>
-      <c r="AE29" s="203"/>
+      <c r="B29" s="164" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="167">
+        <v>45077</v>
+      </c>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="170" t="s">
+        <v>163</v>
+      </c>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="171"/>
+      <c r="N29" s="171"/>
+      <c r="O29" s="171"/>
+      <c r="P29" s="171"/>
+      <c r="Q29" s="171"/>
+      <c r="R29" s="171"/>
+      <c r="S29" s="171"/>
+      <c r="T29" s="171"/>
+      <c r="U29" s="171"/>
+      <c r="V29" s="171"/>
+      <c r="W29" s="171"/>
+      <c r="X29" s="171"/>
+      <c r="Y29" s="171"/>
+      <c r="Z29" s="171"/>
+      <c r="AA29" s="171"/>
+      <c r="AB29" s="171"/>
+      <c r="AC29" s="172" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD29" s="172"/>
+      <c r="AE29" s="172"/>
       <c r="AF29" s="142"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="142"/>
       <c r="B30" s="164"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="194"/>
-      <c r="G30" s="195"/>
-      <c r="H30" s="195"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="198"/>
-      <c r="L30" s="198"/>
-      <c r="M30" s="198"/>
-      <c r="N30" s="198"/>
-      <c r="O30" s="198"/>
-      <c r="P30" s="198"/>
-      <c r="Q30" s="198"/>
-      <c r="R30" s="198"/>
-      <c r="S30" s="198"/>
-      <c r="T30" s="198"/>
-      <c r="U30" s="198"/>
-      <c r="V30" s="198"/>
-      <c r="W30" s="198"/>
-      <c r="X30" s="198"/>
-      <c r="Y30" s="198"/>
-      <c r="Z30" s="198"/>
-      <c r="AA30" s="198"/>
-      <c r="AB30" s="198"/>
-      <c r="AC30" s="208"/>
-      <c r="AD30" s="208"/>
-      <c r="AE30" s="208"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="171"/>
+      <c r="M30" s="171"/>
+      <c r="N30" s="171"/>
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="171"/>
+      <c r="AC30" s="173"/>
+      <c r="AD30" s="173"/>
+      <c r="AE30" s="173"/>
       <c r="AF30" s="142"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="142"/>
       <c r="B31" s="164"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="195"/>
-      <c r="H31" s="195"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="198"/>
-      <c r="L31" s="198"/>
-      <c r="M31" s="198"/>
-      <c r="N31" s="198"/>
-      <c r="O31" s="198"/>
-      <c r="P31" s="198"/>
-      <c r="Q31" s="198"/>
-      <c r="R31" s="198"/>
-      <c r="S31" s="198"/>
-      <c r="T31" s="198"/>
-      <c r="U31" s="198"/>
-      <c r="V31" s="198"/>
-      <c r="W31" s="198"/>
-      <c r="X31" s="198"/>
-      <c r="Y31" s="198"/>
-      <c r="Z31" s="198"/>
-      <c r="AA31" s="198"/>
-      <c r="AB31" s="198"/>
-      <c r="AC31" s="203"/>
-      <c r="AD31" s="203"/>
-      <c r="AE31" s="203"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="171"/>
+      <c r="P31" s="171"/>
+      <c r="Q31" s="171"/>
+      <c r="R31" s="171"/>
+      <c r="S31" s="171"/>
+      <c r="T31" s="171"/>
+      <c r="U31" s="171"/>
+      <c r="V31" s="171"/>
+      <c r="W31" s="171"/>
+      <c r="X31" s="171"/>
+      <c r="Y31" s="171"/>
+      <c r="Z31" s="171"/>
+      <c r="AA31" s="171"/>
+      <c r="AB31" s="171"/>
+      <c r="AC31" s="172"/>
+      <c r="AD31" s="172"/>
+      <c r="AE31" s="172"/>
       <c r="AF31" s="142"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="142"/>
       <c r="B32" s="164"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="195"/>
-      <c r="H32" s="195"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="198"/>
-      <c r="L32" s="198"/>
-      <c r="M32" s="198"/>
-      <c r="N32" s="198"/>
-      <c r="O32" s="198"/>
-      <c r="P32" s="198"/>
-      <c r="Q32" s="198"/>
-      <c r="R32" s="198"/>
-      <c r="S32" s="198"/>
-      <c r="T32" s="198"/>
-      <c r="U32" s="198"/>
-      <c r="V32" s="198"/>
-      <c r="W32" s="198"/>
-      <c r="X32" s="198"/>
-      <c r="Y32" s="198"/>
-      <c r="Z32" s="198"/>
-      <c r="AA32" s="198"/>
-      <c r="AB32" s="198"/>
-      <c r="AC32" s="203"/>
-      <c r="AD32" s="203"/>
-      <c r="AE32" s="203"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="171"/>
+      <c r="L32" s="171"/>
+      <c r="M32" s="171"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="171"/>
+      <c r="P32" s="171"/>
+      <c r="Q32" s="171"/>
+      <c r="R32" s="171"/>
+      <c r="S32" s="171"/>
+      <c r="T32" s="171"/>
+      <c r="U32" s="171"/>
+      <c r="V32" s="171"/>
+      <c r="W32" s="171"/>
+      <c r="X32" s="171"/>
+      <c r="Y32" s="171"/>
+      <c r="Z32" s="171"/>
+      <c r="AA32" s="171"/>
+      <c r="AB32" s="171"/>
+      <c r="AC32" s="172"/>
+      <c r="AD32" s="172"/>
+      <c r="AE32" s="172"/>
       <c r="AF32" s="142"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="142"/>
       <c r="B33" s="164"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="195"/>
-      <c r="H33" s="195"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="198"/>
-      <c r="L33" s="198"/>
-      <c r="M33" s="198"/>
-      <c r="N33" s="198"/>
-      <c r="O33" s="198"/>
-      <c r="P33" s="198"/>
-      <c r="Q33" s="198"/>
-      <c r="R33" s="198"/>
-      <c r="S33" s="198"/>
-      <c r="T33" s="198"/>
-      <c r="U33" s="198"/>
-      <c r="V33" s="198"/>
-      <c r="W33" s="198"/>
-      <c r="X33" s="198"/>
-      <c r="Y33" s="198"/>
-      <c r="Z33" s="198"/>
-      <c r="AA33" s="198"/>
-      <c r="AB33" s="198"/>
-      <c r="AC33" s="203"/>
-      <c r="AD33" s="203"/>
-      <c r="AE33" s="203"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="171"/>
+      <c r="Q33" s="171"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="171"/>
+      <c r="T33" s="171"/>
+      <c r="U33" s="171"/>
+      <c r="V33" s="171"/>
+      <c r="W33" s="171"/>
+      <c r="X33" s="171"/>
+      <c r="Y33" s="171"/>
+      <c r="Z33" s="171"/>
+      <c r="AA33" s="171"/>
+      <c r="AB33" s="171"/>
+      <c r="AC33" s="172"/>
+      <c r="AD33" s="172"/>
+      <c r="AE33" s="172"/>
       <c r="AF33" s="142"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4821,51 +4871,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:AE3"/>
     <mergeCell ref="F7:Q7"/>
@@ -4877,6 +4882,51 @@
     <mergeCell ref="W9:Y12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="AC9:AE12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -4895,20 +4945,22 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.08203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.08203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="41.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.08203125" style="4"/>
+    <col min="2" max="2" width="20.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.19921875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.09765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20">
+    <row r="1" spans="1:6" ht="19.8">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -4919,10 +4971,10 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="217"/>
+      <c r="B2" s="215"/>
       <c r="C2" s="130" t="s">
         <v>6</v>
       </c>
@@ -4935,10 +4987,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="217"/>
+      <c r="B3" s="215"/>
       <c r="C3" s="122" t="s">
         <v>24</v>
       </c>
@@ -4951,10 +5003,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="216" t="s">
+      <c r="A4" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="217"/>
+      <c r="B4" s="215"/>
       <c r="C4" s="130" t="s">
         <v>27</v>
       </c>
@@ -4963,28 +5015,28 @@
         <v>12</v>
       </c>
       <c r="F4" s="123" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="217"/>
+      <c r="B5" s="215"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="123" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="216" t="s">
+      <c r="A6" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="217"/>
+      <c r="B6" s="215"/>
       <c r="C6" s="130" t="s">
         <v>31</v>
       </c>
@@ -5027,10 +5079,10 @@
       <c r="D9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="214" t="s">
+      <c r="E9" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="215"/>
+      <c r="F9" s="213"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="16">
@@ -5045,10 +5097,10 @@
       <c r="D10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="211" t="s">
+      <c r="E10" s="218" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="212"/>
+      <c r="F10" s="219"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="16">
@@ -5063,10 +5115,10 @@
       <c r="D11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="211" t="s">
+      <c r="E11" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="212"/>
+      <c r="F11" s="219"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="16">
@@ -5081,50 +5133,50 @@
       <c r="D12" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="211" t="s">
+      <c r="E12" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="212"/>
+      <c r="F12" s="219"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="128"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="213"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="220"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="125"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="213"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="220"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="106"/>
       <c r="B15" s="106"/>
       <c r="C15" s="106"/>
       <c r="D15" s="106"/>
-      <c r="E15" s="209"/>
-      <c r="F15" s="210"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="217"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="106"/>
       <c r="B16" s="106"/>
       <c r="C16" s="106"/>
       <c r="D16" s="106"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="210"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="217"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="106"/>
       <c r="B17" s="106"/>
       <c r="C17" s="106"/>
       <c r="D17" s="106"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="210"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="217"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -5366,12 +5418,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E10:F10"/>
@@ -5380,6 +5426,12 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5399,17 +5451,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="31.25" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="31.19921875" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20">
+    <row r="1" spans="1:8" ht="19.8">
       <c r="A1" s="26" t="s">
         <v>51</v>
       </c>
@@ -5480,7 +5532,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="119" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
@@ -5498,42 +5550,42 @@
         <v>53</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="252" t="s">
+      <c r="C6" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="253"/>
-      <c r="H6" s="254"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="225"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="252" t="s">
+      <c r="C7" s="223" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="253"/>
-      <c r="E7" s="253"/>
-      <c r="F7" s="253"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="254"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="225"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="252" t="s">
+      <c r="C8" s="223" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="253"/>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
-      <c r="G8" s="253"/>
-      <c r="H8" s="254"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="225"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -5554,10 +5606,10 @@
       <c r="B10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="236" t="s">
+      <c r="C10" s="226" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="255"/>
+      <c r="D10" s="227"/>
       <c r="E10" s="36" t="s">
         <v>62</v>
       </c>
@@ -5578,10 +5630,10 @@
       <c r="B11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="256" t="s">
+      <c r="C11" s="228" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="257"/>
+      <c r="D11" s="229"/>
       <c r="E11" s="40" t="s">
         <v>68</v>
       </c>
@@ -5600,10 +5652,10 @@
       <c r="B12" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="250" t="s">
+      <c r="C12" s="221" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="251"/>
+      <c r="D12" s="222"/>
       <c r="E12" s="40" t="s">
         <v>73</v>
       </c>
@@ -5620,10 +5672,10 @@
       <c r="B13" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="246" t="s">
+      <c r="C13" s="230" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="247"/>
+      <c r="D13" s="231"/>
       <c r="E13" s="45" t="s">
         <v>76</v>
       </c>
@@ -5640,10 +5692,10 @@
       <c r="B14" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="246" t="s">
+      <c r="C14" s="230" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="247"/>
+      <c r="D14" s="231"/>
       <c r="E14" s="45" t="s">
         <v>79</v>
       </c>
@@ -5660,10 +5712,10 @@
       <c r="B15" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="246" t="s">
+      <c r="C15" s="230" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="247"/>
+      <c r="D15" s="231"/>
       <c r="E15" s="45" t="s">
         <v>82</v>
       </c>
@@ -5680,10 +5732,10 @@
       <c r="B16" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="246" t="s">
+      <c r="C16" s="230" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="247"/>
+      <c r="D16" s="231"/>
       <c r="E16" s="50" t="s">
         <v>85</v>
       </c>
@@ -5700,10 +5752,10 @@
       <c r="B17" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="246" t="s">
+      <c r="C17" s="230" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="247"/>
+      <c r="D17" s="231"/>
       <c r="E17" s="50" t="s">
         <v>88</v>
       </c>
@@ -5720,10 +5772,10 @@
       <c r="B18" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="246" t="s">
+      <c r="C18" s="230" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="247"/>
+      <c r="D18" s="231"/>
       <c r="E18" s="50" t="s">
         <v>91</v>
       </c>
@@ -5736,8 +5788,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="246"/>
-      <c r="D19" s="247"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="231"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
@@ -5746,8 +5798,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="246"/>
-      <c r="D20" s="247"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="231"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -5756,8 +5808,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="246"/>
-      <c r="D21" s="247"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="231"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
@@ -5766,8 +5818,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="246"/>
-      <c r="D22" s="247"/>
+      <c r="C22" s="230"/>
+      <c r="D22" s="231"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
@@ -5776,8 +5828,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="246"/>
-      <c r="D23" s="247"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="231"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
@@ -5786,8 +5838,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="246"/>
-      <c r="D24" s="247"/>
+      <c r="C24" s="230"/>
+      <c r="D24" s="231"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
@@ -5796,8 +5848,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="246"/>
-      <c r="D25" s="247"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="231"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
@@ -5806,8 +5858,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="246"/>
-      <c r="D26" s="247"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="231"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
@@ -5816,8 +5868,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="246"/>
-      <c r="D27" s="247"/>
+      <c r="C27" s="230"/>
+      <c r="D27" s="231"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
@@ -5826,8 +5878,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="246"/>
-      <c r="D28" s="247"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="231"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
@@ -5836,8 +5888,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="246"/>
-      <c r="D29" s="247"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="231"/>
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
@@ -5846,8 +5898,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="53"/>
       <c r="B30" s="54"/>
-      <c r="C30" s="221"/>
-      <c r="D30" s="223"/>
+      <c r="C30" s="237"/>
+      <c r="D30" s="238"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
       <c r="G30" s="56"/>
@@ -5879,10 +5931,10 @@
       <c r="A33" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="233" t="s">
+      <c r="B33" s="239" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="235"/>
+      <c r="C33" s="240"/>
       <c r="D33" s="62" t="s">
         <v>94</v>
       </c>
@@ -5897,51 +5949,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="38"/>
-      <c r="B34" s="248"/>
-      <c r="C34" s="249"/>
-      <c r="D34" s="238"/>
-      <c r="E34" s="239"/>
-      <c r="F34" s="240"/>
+      <c r="B34" s="241"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="245"/>
       <c r="G34" s="41"/>
       <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="241"/>
-      <c r="C35" s="242"/>
-      <c r="D35" s="230"/>
-      <c r="E35" s="231"/>
-      <c r="F35" s="232"/>
+      <c r="B35" s="232"/>
+      <c r="C35" s="233"/>
+      <c r="D35" s="234"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="236"/>
       <c r="G35" s="46"/>
       <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="43"/>
-      <c r="B36" s="241"/>
-      <c r="C36" s="242"/>
-      <c r="D36" s="230"/>
-      <c r="E36" s="231"/>
-      <c r="F36" s="232"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="233"/>
+      <c r="D36" s="234"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="236"/>
       <c r="G36" s="46"/>
       <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="43"/>
-      <c r="B37" s="241"/>
-      <c r="C37" s="242"/>
-      <c r="D37" s="230"/>
-      <c r="E37" s="231"/>
-      <c r="F37" s="232"/>
+      <c r="B37" s="232"/>
+      <c r="C37" s="233"/>
+      <c r="D37" s="234"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="236"/>
       <c r="G37" s="46"/>
       <c r="H37" s="47"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="53"/>
-      <c r="B38" s="243"/>
-      <c r="C38" s="244"/>
-      <c r="D38" s="221"/>
-      <c r="E38" s="222"/>
-      <c r="F38" s="223"/>
+      <c r="B38" s="246"/>
+      <c r="C38" s="247"/>
+      <c r="D38" s="237"/>
+      <c r="E38" s="248"/>
+      <c r="F38" s="238"/>
       <c r="G38" s="56"/>
       <c r="H38" s="57"/>
     </row>
@@ -5974,15 +6026,15 @@
       <c r="B41" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="233" t="s">
+      <c r="C41" s="239" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="234"/>
-      <c r="E41" s="235"/>
-      <c r="F41" s="233" t="s">
+      <c r="D41" s="249"/>
+      <c r="E41" s="240"/>
+      <c r="F41" s="239" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="245"/>
+      <c r="G41" s="250"/>
       <c r="H41" s="66" t="s">
         <v>99</v>
       </c>
@@ -5990,51 +6042,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="67"/>
       <c r="B42" s="68"/>
-      <c r="C42" s="238"/>
-      <c r="D42" s="239"/>
-      <c r="E42" s="240"/>
-      <c r="F42" s="238"/>
-      <c r="G42" s="240"/>
+      <c r="C42" s="243"/>
+      <c r="D42" s="244"/>
+      <c r="E42" s="245"/>
+      <c r="F42" s="243"/>
+      <c r="G42" s="245"/>
       <c r="H42" s="69"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="70"/>
       <c r="B43" s="71"/>
-      <c r="C43" s="230"/>
-      <c r="D43" s="231"/>
-      <c r="E43" s="232"/>
-      <c r="F43" s="230"/>
-      <c r="G43" s="232"/>
+      <c r="C43" s="234"/>
+      <c r="D43" s="235"/>
+      <c r="E43" s="236"/>
+      <c r="F43" s="234"/>
+      <c r="G43" s="236"/>
       <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="70"/>
       <c r="B44" s="71"/>
-      <c r="C44" s="230"/>
-      <c r="D44" s="231"/>
-      <c r="E44" s="232"/>
-      <c r="F44" s="230"/>
-      <c r="G44" s="232"/>
+      <c r="C44" s="234"/>
+      <c r="D44" s="235"/>
+      <c r="E44" s="236"/>
+      <c r="F44" s="234"/>
+      <c r="G44" s="236"/>
       <c r="H44" s="72"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="70"/>
       <c r="B45" s="71"/>
-      <c r="C45" s="230"/>
-      <c r="D45" s="231"/>
-      <c r="E45" s="232"/>
-      <c r="F45" s="230"/>
-      <c r="G45" s="232"/>
+      <c r="C45" s="234"/>
+      <c r="D45" s="235"/>
+      <c r="E45" s="236"/>
+      <c r="F45" s="234"/>
+      <c r="G45" s="236"/>
       <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="73"/>
       <c r="B46" s="74"/>
-      <c r="C46" s="221"/>
-      <c r="D46" s="222"/>
-      <c r="E46" s="223"/>
-      <c r="F46" s="224"/>
-      <c r="G46" s="225"/>
+      <c r="C46" s="237"/>
+      <c r="D46" s="248"/>
+      <c r="E46" s="238"/>
+      <c r="F46" s="251"/>
+      <c r="G46" s="252"/>
       <c r="H46" s="75"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6066,15 +6118,15 @@
       <c r="B49" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="233" t="s">
+      <c r="C49" s="239" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="234"/>
-      <c r="E49" s="235"/>
-      <c r="F49" s="236" t="s">
+      <c r="D49" s="249"/>
+      <c r="E49" s="240"/>
+      <c r="F49" s="226" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="237"/>
+      <c r="G49" s="253"/>
       <c r="H49" s="37" t="s">
         <v>102</v>
       </c>
@@ -6082,15 +6134,15 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="76"/>
       <c r="B50" s="77"/>
-      <c r="C50" s="226" t="s">
+      <c r="C50" s="257" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="227"/>
-      <c r="E50" s="228"/>
-      <c r="F50" s="226" t="s">
+      <c r="D50" s="258"/>
+      <c r="E50" s="259"/>
+      <c r="F50" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="228"/>
+      <c r="G50" s="259"/>
       <c r="H50" s="78" t="s">
         <v>103</v>
       </c>
@@ -6098,15 +6150,15 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="103"/>
       <c r="B51" s="104"/>
-      <c r="C51" s="229" t="s">
+      <c r="C51" s="260" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="219"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="218" t="s">
+      <c r="D51" s="255"/>
+      <c r="E51" s="256"/>
+      <c r="F51" s="254" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="220"/>
+      <c r="G51" s="256"/>
       <c r="H51" s="105" t="s">
         <v>106</v>
       </c>
@@ -6114,53 +6166,63 @@
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="103"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="229"/>
-      <c r="D52" s="219"/>
-      <c r="E52" s="220"/>
-      <c r="F52" s="218"/>
-      <c r="G52" s="220"/>
+      <c r="C52" s="260"/>
+      <c r="D52" s="255"/>
+      <c r="E52" s="256"/>
+      <c r="F52" s="254"/>
+      <c r="G52" s="256"/>
       <c r="H52" s="105"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="103"/>
       <c r="B53" s="104"/>
-      <c r="C53" s="218"/>
-      <c r="D53" s="219"/>
-      <c r="E53" s="220"/>
-      <c r="F53" s="218"/>
-      <c r="G53" s="220"/>
+      <c r="C53" s="254"/>
+      <c r="D53" s="255"/>
+      <c r="E53" s="256"/>
+      <c r="F53" s="254"/>
+      <c r="G53" s="256"/>
       <c r="H53" s="105"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="73"/>
       <c r="B54" s="74"/>
-      <c r="C54" s="221"/>
-      <c r="D54" s="222"/>
-      <c r="E54" s="223"/>
-      <c r="F54" s="224"/>
-      <c r="G54" s="225"/>
+      <c r="C54" s="237"/>
+      <c r="D54" s="248"/>
+      <c r="E54" s="238"/>
+      <c r="F54" s="251"/>
+      <c r="G54" s="252"/>
       <c r="H54" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -6174,34 +6236,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6220,17 +6272,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
+    <col min="8" max="8" width="22.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20">
+    <row r="1" spans="1:8" ht="19.8">
       <c r="A1" s="26" t="s">
         <v>51</v>
       </c>
@@ -6301,7 +6353,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="119" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
@@ -6319,42 +6371,42 @@
         <v>53</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="252" t="s">
+      <c r="C6" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="253"/>
-      <c r="H6" s="254"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="225"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="252" t="s">
+      <c r="C7" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="253"/>
-      <c r="E7" s="253"/>
-      <c r="F7" s="253"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="254"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="225"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="252" t="s">
+      <c r="C8" s="223" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="253"/>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
-      <c r="G8" s="253"/>
-      <c r="H8" s="254"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="225"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -6375,10 +6427,10 @@
       <c r="B10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="236" t="s">
+      <c r="C10" s="226" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="255"/>
+      <c r="D10" s="227"/>
       <c r="E10" s="36" t="s">
         <v>62</v>
       </c>
@@ -6399,10 +6451,10 @@
       <c r="B11" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="276" t="s">
+      <c r="C11" s="263" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="277"/>
+      <c r="D11" s="264"/>
       <c r="E11" s="40" t="s">
         <v>110</v>
       </c>
@@ -6421,10 +6473,10 @@
       <c r="B12" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="269" t="s">
+      <c r="C12" s="261" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="270"/>
+      <c r="D12" s="262"/>
       <c r="E12" s="45" t="s">
         <v>76</v>
       </c>
@@ -6441,10 +6493,10 @@
       <c r="B13" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="269" t="s">
+      <c r="C13" s="261" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="270"/>
+      <c r="D13" s="262"/>
       <c r="E13" s="50" t="s">
         <v>68</v>
       </c>
@@ -6461,12 +6513,12 @@
         <v>4</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="271" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="272"/>
+        <v>149</v>
+      </c>
+      <c r="C14" s="265" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="266"/>
       <c r="E14" s="50" t="s">
         <v>116</v>
       </c>
@@ -6479,8 +6531,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="273"/>
-      <c r="D15" s="274"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="268"/>
       <c r="E15" s="162"/>
       <c r="F15" s="161"/>
       <c r="G15" s="46"/>
@@ -6489,8 +6541,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="246"/>
-      <c r="D16" s="275"/>
+      <c r="C16" s="230"/>
+      <c r="D16" s="269"/>
       <c r="E16" s="102"/>
       <c r="F16" s="100"/>
       <c r="G16" s="51"/>
@@ -6499,8 +6551,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="246"/>
-      <c r="D17" s="247"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="231"/>
       <c r="E17" s="101"/>
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
@@ -6509,8 +6561,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="246"/>
-      <c r="D18" s="247"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="231"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
@@ -6519,8 +6571,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="246"/>
-      <c r="D19" s="247"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="231"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
@@ -6529,8 +6581,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="246"/>
-      <c r="D20" s="247"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="231"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -6539,8 +6591,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="246"/>
-      <c r="D21" s="247"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="231"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
@@ -6549,8 +6601,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="246"/>
-      <c r="D22" s="247"/>
+      <c r="C22" s="230"/>
+      <c r="D22" s="231"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
@@ -6559,8 +6611,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="246"/>
-      <c r="D23" s="247"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="231"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
@@ -6569,8 +6621,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="246"/>
-      <c r="D24" s="247"/>
+      <c r="C24" s="230"/>
+      <c r="D24" s="231"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
@@ -6579,8 +6631,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="246"/>
-      <c r="D25" s="247"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="231"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
@@ -6589,8 +6641,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="246"/>
-      <c r="D26" s="247"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="231"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
@@ -6599,8 +6651,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="246"/>
-      <c r="D27" s="247"/>
+      <c r="C27" s="230"/>
+      <c r="D27" s="231"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
@@ -6609,8 +6661,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="246"/>
-      <c r="D28" s="247"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="231"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
@@ -6619,8 +6671,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="246"/>
-      <c r="D29" s="247"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="231"/>
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
@@ -6629,8 +6681,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="53"/>
       <c r="B30" s="54"/>
-      <c r="C30" s="221"/>
-      <c r="D30" s="223"/>
+      <c r="C30" s="237"/>
+      <c r="D30" s="238"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
       <c r="G30" s="56"/>
@@ -6662,10 +6714,10 @@
       <c r="A33" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="233" t="s">
+      <c r="B33" s="239" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="235"/>
+      <c r="C33" s="240"/>
       <c r="D33" s="62" t="s">
         <v>94</v>
       </c>
@@ -6680,51 +6732,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="38"/>
-      <c r="B34" s="248"/>
-      <c r="C34" s="249"/>
-      <c r="D34" s="238"/>
-      <c r="E34" s="239"/>
-      <c r="F34" s="240"/>
+      <c r="B34" s="241"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="243"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="245"/>
       <c r="G34" s="41"/>
       <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="241"/>
-      <c r="C35" s="242"/>
-      <c r="D35" s="230"/>
-      <c r="E35" s="231"/>
-      <c r="F35" s="232"/>
+      <c r="B35" s="232"/>
+      <c r="C35" s="233"/>
+      <c r="D35" s="234"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="236"/>
       <c r="G35" s="46"/>
       <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="43"/>
-      <c r="B36" s="241"/>
-      <c r="C36" s="242"/>
-      <c r="D36" s="230"/>
-      <c r="E36" s="231"/>
-      <c r="F36" s="232"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="233"/>
+      <c r="D36" s="234"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="236"/>
       <c r="G36" s="46"/>
       <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="43"/>
-      <c r="B37" s="241"/>
-      <c r="C37" s="242"/>
-      <c r="D37" s="230"/>
-      <c r="E37" s="231"/>
-      <c r="F37" s="232"/>
+      <c r="B37" s="232"/>
+      <c r="C37" s="233"/>
+      <c r="D37" s="234"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="236"/>
       <c r="G37" s="46"/>
       <c r="H37" s="47"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="53"/>
-      <c r="B38" s="243"/>
-      <c r="C38" s="244"/>
-      <c r="D38" s="221"/>
-      <c r="E38" s="222"/>
-      <c r="F38" s="223"/>
+      <c r="B38" s="246"/>
+      <c r="C38" s="247"/>
+      <c r="D38" s="237"/>
+      <c r="E38" s="248"/>
+      <c r="F38" s="238"/>
       <c r="G38" s="56"/>
       <c r="H38" s="57"/>
     </row>
@@ -6757,15 +6809,15 @@
       <c r="B41" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="233" t="s">
+      <c r="C41" s="239" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="234"/>
-      <c r="E41" s="235"/>
-      <c r="F41" s="233" t="s">
+      <c r="D41" s="249"/>
+      <c r="E41" s="240"/>
+      <c r="F41" s="239" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="245"/>
+      <c r="G41" s="250"/>
       <c r="H41" s="66" t="s">
         <v>99</v>
       </c>
@@ -6773,15 +6825,15 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="111"/>
       <c r="B42" s="108"/>
-      <c r="C42" s="266" t="s">
+      <c r="C42" s="270" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="267"/>
-      <c r="E42" s="268"/>
-      <c r="F42" s="266" t="s">
+      <c r="D42" s="271"/>
+      <c r="E42" s="272"/>
+      <c r="F42" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="268"/>
+      <c r="G42" s="272"/>
       <c r="H42" s="112" t="s">
         <v>103</v>
       </c>
@@ -6789,21 +6841,21 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="109"/>
       <c r="B43" s="110"/>
-      <c r="C43" s="258"/>
-      <c r="D43" s="259"/>
-      <c r="E43" s="260"/>
-      <c r="F43" s="258"/>
-      <c r="G43" s="260"/>
+      <c r="C43" s="273"/>
+      <c r="D43" s="274"/>
+      <c r="E43" s="275"/>
+      <c r="F43" s="273"/>
+      <c r="G43" s="275"/>
       <c r="H43" s="113"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="114"/>
       <c r="B44" s="115"/>
-      <c r="C44" s="261"/>
-      <c r="D44" s="262"/>
-      <c r="E44" s="263"/>
-      <c r="F44" s="264"/>
-      <c r="G44" s="265"/>
+      <c r="C44" s="276"/>
+      <c r="D44" s="277"/>
+      <c r="E44" s="278"/>
+      <c r="F44" s="279"/>
+      <c r="G44" s="280"/>
       <c r="H44" s="116"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
@@ -6835,15 +6887,15 @@
       <c r="B47" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="233" t="s">
+      <c r="C47" s="239" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="234"/>
-      <c r="E47" s="235"/>
-      <c r="F47" s="236" t="s">
+      <c r="D47" s="249"/>
+      <c r="E47" s="240"/>
+      <c r="F47" s="226" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="237"/>
+      <c r="G47" s="253"/>
       <c r="H47" s="37" t="s">
         <v>102</v>
       </c>
@@ -6851,15 +6903,15 @@
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="76"/>
       <c r="B48" s="77"/>
-      <c r="C48" s="226" t="s">
+      <c r="C48" s="257" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="227"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="226" t="s">
+      <c r="D48" s="258"/>
+      <c r="E48" s="259"/>
+      <c r="F48" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="G48" s="228"/>
+      <c r="G48" s="259"/>
       <c r="H48" s="78" t="s">
         <v>118</v>
       </c>
@@ -6867,63 +6919,69 @@
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="103"/>
       <c r="B49" s="104"/>
-      <c r="C49" s="218"/>
-      <c r="D49" s="219"/>
-      <c r="E49" s="220"/>
-      <c r="F49" s="218"/>
-      <c r="G49" s="220"/>
+      <c r="C49" s="254"/>
+      <c r="D49" s="255"/>
+      <c r="E49" s="256"/>
+      <c r="F49" s="254"/>
+      <c r="G49" s="256"/>
       <c r="H49" s="105"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="103"/>
       <c r="B50" s="104"/>
-      <c r="C50" s="218"/>
-      <c r="D50" s="219"/>
-      <c r="E50" s="220"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="220"/>
+      <c r="C50" s="254"/>
+      <c r="D50" s="255"/>
+      <c r="E50" s="256"/>
+      <c r="F50" s="254"/>
+      <c r="G50" s="256"/>
       <c r="H50" s="105"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="103"/>
       <c r="B51" s="104"/>
-      <c r="C51" s="218"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="220"/>
-      <c r="F51" s="218"/>
-      <c r="G51" s="220"/>
+      <c r="C51" s="254"/>
+      <c r="D51" s="255"/>
+      <c r="E51" s="256"/>
+      <c r="F51" s="254"/>
+      <c r="G51" s="256"/>
       <c r="H51" s="105"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="73"/>
       <c r="B52" s="74"/>
-      <c r="C52" s="221"/>
-      <c r="D52" s="222"/>
-      <c r="E52" s="223"/>
-      <c r="F52" s="224"/>
-      <c r="G52" s="225"/>
+      <c r="C52" s="237"/>
+      <c r="D52" s="248"/>
+      <c r="E52" s="238"/>
+      <c r="F52" s="251"/>
+      <c r="G52" s="252"/>
       <c r="H52" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -6937,30 +6995,24 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6975,21 +7027,23 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:E42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="30.75" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="30.69921875" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="12.09765625" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20">
+    <row r="1" spans="1:8" ht="19.8">
       <c r="A1" s="26" t="s">
         <v>51</v>
       </c>
@@ -7060,7 +7114,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="119" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
@@ -7078,42 +7132,42 @@
         <v>53</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="252" t="s">
+      <c r="C6" s="223" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="253"/>
-      <c r="H6" s="254"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="225"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="252" t="s">
+      <c r="C7" s="223" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="253"/>
-      <c r="E7" s="253"/>
-      <c r="F7" s="253"/>
-      <c r="G7" s="253"/>
-      <c r="H7" s="254"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="225"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="252" t="s">
+      <c r="C8" s="223" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="253"/>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
-      <c r="G8" s="253"/>
-      <c r="H8" s="254"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="225"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -7134,10 +7188,10 @@
       <c r="B10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="284" t="s">
+      <c r="C10" s="283" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="285"/>
+      <c r="D10" s="284"/>
       <c r="E10" s="36" t="s">
         <v>62</v>
       </c>
@@ -7158,10 +7212,10 @@
       <c r="B11" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="280" t="s">
+      <c r="C11" s="289" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="281"/>
+      <c r="D11" s="290"/>
       <c r="E11" s="40" t="s">
         <v>110</v>
       </c>
@@ -7180,10 +7234,10 @@
       <c r="B12" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="286" t="s">
+      <c r="C12" s="285" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="287"/>
+      <c r="D12" s="286"/>
       <c r="E12" s="40" t="s">
         <v>110</v>
       </c>
@@ -7202,10 +7256,10 @@
       <c r="B13" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="282" t="s">
+      <c r="C13" s="281" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="283"/>
+      <c r="D13" s="282"/>
       <c r="E13" s="129" t="s">
         <v>68</v>
       </c>
@@ -7224,10 +7278,10 @@
       <c r="B14" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="278" t="s">
+      <c r="C14" s="287" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="279"/>
+      <c r="D14" s="288"/>
       <c r="E14" s="131" t="s">
         <v>116</v>
       </c>
@@ -7244,10 +7298,10 @@
       <c r="B15" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="246" t="s">
+      <c r="C15" s="230" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="247"/>
+      <c r="D15" s="231"/>
       <c r="E15" s="50" t="s">
         <v>125</v>
       </c>
@@ -7260,8 +7314,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="246"/>
-      <c r="D16" s="247"/>
+      <c r="C16" s="230"/>
+      <c r="D16" s="231"/>
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
       <c r="G16" s="51"/>
@@ -7270,8 +7324,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="246"/>
-      <c r="D17" s="247"/>
+      <c r="C17" s="230"/>
+      <c r="D17" s="231"/>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
@@ -7280,8 +7334,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="246"/>
-      <c r="D18" s="247"/>
+      <c r="C18" s="230"/>
+      <c r="D18" s="231"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
@@ -7290,8 +7344,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="246"/>
-      <c r="D19" s="247"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="231"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
@@ -7300,8 +7354,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="246"/>
-      <c r="D20" s="247"/>
+      <c r="C20" s="230"/>
+      <c r="D20" s="231"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -7310,8 +7364,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="246"/>
-      <c r="D21" s="247"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="231"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
@@ -7320,8 +7374,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="246"/>
-      <c r="D22" s="247"/>
+      <c r="C22" s="230"/>
+      <c r="D22" s="231"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
@@ -7330,8 +7384,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="246"/>
-      <c r="D23" s="247"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="231"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
@@ -7340,8 +7394,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="246"/>
-      <c r="D24" s="247"/>
+      <c r="C24" s="230"/>
+      <c r="D24" s="231"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
@@ -7350,8 +7404,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="246"/>
-      <c r="D25" s="247"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="231"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
@@ -7360,8 +7414,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="246"/>
-      <c r="D26" s="247"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="231"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
@@ -7370,8 +7424,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="246"/>
-      <c r="D27" s="247"/>
+      <c r="C27" s="230"/>
+      <c r="D27" s="231"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
@@ -7380,8 +7434,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="246"/>
-      <c r="D28" s="247"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="231"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
@@ -7390,8 +7444,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="53"/>
       <c r="B29" s="54"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="223"/>
+      <c r="C29" s="237"/>
+      <c r="D29" s="238"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
       <c r="G29" s="56"/>
@@ -7423,10 +7477,10 @@
       <c r="A32" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="233" t="s">
+      <c r="B32" s="239" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="235"/>
+      <c r="C32" s="240"/>
       <c r="D32" s="62" t="s">
         <v>94</v>
       </c>
@@ -7441,51 +7495,51 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="38"/>
-      <c r="B33" s="248"/>
-      <c r="C33" s="249"/>
-      <c r="D33" s="238"/>
-      <c r="E33" s="239"/>
-      <c r="F33" s="240"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="245"/>
       <c r="G33" s="41"/>
       <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="43"/>
-      <c r="B34" s="241"/>
-      <c r="C34" s="242"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="B34" s="232"/>
+      <c r="C34" s="233"/>
+      <c r="D34" s="234"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="236"/>
       <c r="G34" s="46"/>
       <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="241"/>
-      <c r="C35" s="242"/>
-      <c r="D35" s="230"/>
-      <c r="E35" s="231"/>
-      <c r="F35" s="232"/>
+      <c r="B35" s="232"/>
+      <c r="C35" s="233"/>
+      <c r="D35" s="234"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="236"/>
       <c r="G35" s="46"/>
       <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="43"/>
-      <c r="B36" s="241"/>
-      <c r="C36" s="242"/>
-      <c r="D36" s="230"/>
-      <c r="E36" s="231"/>
-      <c r="F36" s="232"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="233"/>
+      <c r="D36" s="234"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="236"/>
       <c r="G36" s="46"/>
       <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A37" s="53"/>
-      <c r="B37" s="243"/>
-      <c r="C37" s="244"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="246"/>
+      <c r="C37" s="247"/>
+      <c r="D37" s="237"/>
+      <c r="E37" s="248"/>
+      <c r="F37" s="238"/>
       <c r="G37" s="56"/>
       <c r="H37" s="57"/>
     </row>
@@ -7518,15 +7572,15 @@
       <c r="B40" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="233" t="s">
+      <c r="C40" s="239" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="234"/>
-      <c r="E40" s="235"/>
-      <c r="F40" s="233" t="s">
+      <c r="D40" s="249"/>
+      <c r="E40" s="240"/>
+      <c r="F40" s="239" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="245"/>
+      <c r="G40" s="250"/>
       <c r="H40" s="66" t="s">
         <v>99</v>
       </c>
@@ -7534,15 +7588,15 @@
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="76"/>
       <c r="B41" s="77"/>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="257" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="227"/>
-      <c r="E41" s="228"/>
-      <c r="F41" s="226" t="s">
+      <c r="D41" s="258"/>
+      <c r="E41" s="259"/>
+      <c r="F41" s="257" t="s">
         <v>105</v>
       </c>
-      <c r="G41" s="228"/>
+      <c r="G41" s="259"/>
       <c r="H41" s="78" t="s">
         <v>108</v>
       </c>
@@ -7550,15 +7604,15 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="103"/>
       <c r="B42" s="104"/>
-      <c r="C42" s="218" t="s">
+      <c r="C42" s="254" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="219"/>
-      <c r="E42" s="220"/>
-      <c r="F42" s="229" t="s">
+      <c r="D42" s="255"/>
+      <c r="E42" s="256"/>
+      <c r="F42" s="260" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="220"/>
+      <c r="G42" s="256"/>
       <c r="H42" s="160" t="s">
         <v>103</v>
       </c>
@@ -7566,21 +7620,21 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="103"/>
       <c r="B43" s="104"/>
-      <c r="C43" s="218"/>
-      <c r="D43" s="219"/>
-      <c r="E43" s="220"/>
-      <c r="F43" s="218"/>
-      <c r="G43" s="220"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="255"/>
+      <c r="E43" s="256"/>
+      <c r="F43" s="254"/>
+      <c r="G43" s="256"/>
       <c r="H43" s="163"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="73"/>
       <c r="B44" s="74"/>
-      <c r="C44" s="221"/>
-      <c r="D44" s="222"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="224"/>
-      <c r="G44" s="225"/>
+      <c r="C44" s="237"/>
+      <c r="D44" s="248"/>
+      <c r="E44" s="238"/>
+      <c r="F44" s="251"/>
+      <c r="G44" s="252"/>
       <c r="H44" s="75"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
@@ -7612,15 +7666,15 @@
       <c r="B47" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="233" t="s">
+      <c r="C47" s="239" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="234"/>
-      <c r="E47" s="235"/>
-      <c r="F47" s="236" t="s">
+      <c r="D47" s="249"/>
+      <c r="E47" s="240"/>
+      <c r="F47" s="226" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="237"/>
+      <c r="G47" s="253"/>
       <c r="H47" s="37" t="s">
         <v>102</v>
       </c>
@@ -7628,84 +7682,45 @@
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="70"/>
       <c r="B48" s="71"/>
-      <c r="C48" s="230"/>
-      <c r="D48" s="231"/>
-      <c r="E48" s="232"/>
-      <c r="F48" s="230"/>
-      <c r="G48" s="232"/>
+      <c r="C48" s="234"/>
+      <c r="D48" s="235"/>
+      <c r="E48" s="236"/>
+      <c r="F48" s="234"/>
+      <c r="G48" s="236"/>
       <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="70"/>
       <c r="B49" s="71"/>
-      <c r="C49" s="230"/>
-      <c r="D49" s="231"/>
-      <c r="E49" s="232"/>
-      <c r="F49" s="230"/>
-      <c r="G49" s="232"/>
+      <c r="C49" s="234"/>
+      <c r="D49" s="235"/>
+      <c r="E49" s="236"/>
+      <c r="F49" s="234"/>
+      <c r="G49" s="236"/>
       <c r="H49" s="72"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="70"/>
       <c r="B50" s="71"/>
-      <c r="C50" s="230"/>
-      <c r="D50" s="231"/>
-      <c r="E50" s="232"/>
-      <c r="F50" s="230"/>
-      <c r="G50" s="232"/>
+      <c r="C50" s="234"/>
+      <c r="D50" s="235"/>
+      <c r="E50" s="236"/>
+      <c r="F50" s="234"/>
+      <c r="G50" s="236"/>
       <c r="H50" s="72"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A51" s="73"/>
       <c r="B51" s="74"/>
-      <c r="C51" s="221"/>
-      <c r="D51" s="222"/>
-      <c r="E51" s="223"/>
-      <c r="F51" s="224"/>
-      <c r="G51" s="225"/>
+      <c r="C51" s="237"/>
+      <c r="D51" s="248"/>
+      <c r="E51" s="238"/>
+      <c r="F51" s="251"/>
+      <c r="G51" s="252"/>
       <c r="H51" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C11:D11"/>
@@ -7721,6 +7736,45 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7735,20 +7789,22 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="5.58203125" customWidth="1"/>
-    <col min="3" max="5" width="9.08203125" customWidth="1"/>
-    <col min="6" max="6" width="6.75" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.08203125" customWidth="1"/>
-    <col min="11" max="11" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08203125" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" customWidth="1"/>
+    <col min="3" max="5" width="9.09765625" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" customWidth="1"/>
+    <col min="8" max="8" width="11.796875" customWidth="1"/>
+    <col min="9" max="9" width="11.296875" customWidth="1"/>
+    <col min="10" max="10" width="9.09765625" customWidth="1"/>
+    <col min="11" max="11" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -7784,7 +7840,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="139" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="83" t="s">
@@ -7811,7 +7867,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="139" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="83" t="s">
@@ -7841,7 +7897,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="296" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M4" s="295"/>
     </row>
@@ -7861,10 +7917,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="85" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" s="130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -7883,7 +7939,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -7905,7 +7961,7 @@
       <c r="A9" s="88"/>
       <c r="F9" s="89"/>
       <c r="G9" s="297" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H9" s="298"/>
       <c r="I9" s="298"/>
@@ -7931,7 +7987,7 @@
         <v>47</v>
       </c>
       <c r="J10" s="93" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K10" s="93"/>
       <c r="L10" s="93"/>
@@ -7939,26 +7995,26 @@
     </row>
     <row r="11" spans="1:13" ht="21.75" customHeight="1">
       <c r="A11" s="88"/>
-      <c r="B11" s="291" t="s">
+      <c r="B11" s="300" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="291" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="292"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="293"/>
+      <c r="G11" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="288" t="s">
+      <c r="H11" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="289"/>
-      <c r="E11" s="289"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="93" t="s">
-        <v>137</v>
-      </c>
       <c r="I11" s="93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J11" s="93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K11" s="93"/>
       <c r="L11" s="93"/>
@@ -7966,24 +8022,24 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="88"/>
-      <c r="B12" s="292"/>
-      <c r="C12" s="288" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="289"/>
-      <c r="E12" s="289"/>
-      <c r="F12" s="290"/>
+      <c r="B12" s="301"/>
+      <c r="C12" s="291" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="292"/>
+      <c r="E12" s="292"/>
+      <c r="F12" s="293"/>
       <c r="G12" s="93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H12" s="93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I12" s="93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J12" s="117" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K12" s="117"/>
       <c r="L12" s="93"/>
@@ -7991,24 +8047,24 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="88"/>
-      <c r="B13" s="292"/>
-      <c r="C13" s="288" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="289"/>
-      <c r="E13" s="289"/>
-      <c r="F13" s="290"/>
+      <c r="B13" s="301"/>
+      <c r="C13" s="291" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="292"/>
+      <c r="E13" s="292"/>
+      <c r="F13" s="293"/>
       <c r="G13" s="93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H13" s="93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I13" s="93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J13" s="93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K13" s="93"/>
       <c r="L13" s="93"/>
@@ -8016,24 +8072,24 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="88"/>
-      <c r="B14" s="292"/>
-      <c r="C14" s="288" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="289"/>
-      <c r="E14" s="289"/>
-      <c r="F14" s="290"/>
+      <c r="B14" s="301"/>
+      <c r="C14" s="291" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="292"/>
+      <c r="E14" s="292"/>
+      <c r="F14" s="293"/>
       <c r="G14" s="93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I14" s="93" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J14" s="93" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K14" s="93"/>
       <c r="L14" s="93"/>
@@ -8041,24 +8097,24 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="88"/>
-      <c r="B15" s="292"/>
-      <c r="C15" s="288" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="289"/>
-      <c r="E15" s="289"/>
-      <c r="F15" s="290"/>
+      <c r="B15" s="301"/>
+      <c r="C15" s="291" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="292"/>
+      <c r="E15" s="292"/>
+      <c r="F15" s="293"/>
       <c r="G15" s="93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H15" s="93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I15" s="93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J15" s="93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K15" s="93"/>
       <c r="L15" s="93"/>
@@ -8066,24 +8122,24 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="88"/>
-      <c r="B16" s="292"/>
-      <c r="C16" s="288" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="289"/>
-      <c r="E16" s="289"/>
-      <c r="F16" s="290"/>
+      <c r="B16" s="301"/>
+      <c r="C16" s="291" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="292"/>
+      <c r="E16" s="292"/>
+      <c r="F16" s="293"/>
       <c r="G16" s="93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H16" s="93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I16" s="93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J16" s="93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K16" s="93"/>
       <c r="L16" s="93"/>
@@ -8091,24 +8147,24 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="88"/>
-      <c r="B17" s="292"/>
-      <c r="C17" s="288" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="289"/>
-      <c r="E17" s="289"/>
-      <c r="F17" s="290"/>
+      <c r="B17" s="301"/>
+      <c r="C17" s="291" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="292"/>
+      <c r="E17" s="292"/>
+      <c r="F17" s="293"/>
       <c r="G17" s="93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H17" s="93" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I17" s="93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J17" s="93" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K17" s="93"/>
       <c r="L17" s="93"/>
@@ -8116,11 +8172,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="88"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="289"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="290"/>
+      <c r="B18" s="301"/>
+      <c r="C18" s="291"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="293"/>
       <c r="G18" s="93"/>
       <c r="H18" s="93"/>
       <c r="I18" s="93"/>
@@ -8131,11 +8187,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="88"/>
-      <c r="B19" s="292"/>
-      <c r="C19" s="288"/>
-      <c r="D19" s="289"/>
-      <c r="E19" s="289"/>
-      <c r="F19" s="290"/>
+      <c r="B19" s="301"/>
+      <c r="C19" s="291"/>
+      <c r="D19" s="292"/>
+      <c r="E19" s="292"/>
+      <c r="F19" s="293"/>
       <c r="G19" s="93"/>
       <c r="H19" s="93"/>
       <c r="I19" s="93"/>
@@ -8146,11 +8202,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="88"/>
-      <c r="B20" s="292"/>
-      <c r="C20" s="288"/>
-      <c r="D20" s="289"/>
-      <c r="E20" s="289"/>
-      <c r="F20" s="290"/>
+      <c r="B20" s="301"/>
+      <c r="C20" s="291"/>
+      <c r="D20" s="292"/>
+      <c r="E20" s="292"/>
+      <c r="F20" s="293"/>
       <c r="G20" s="93"/>
       <c r="H20" s="93"/>
       <c r="I20" s="93"/>
@@ -8161,11 +8217,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="88"/>
-      <c r="B21" s="292"/>
-      <c r="C21" s="288"/>
-      <c r="D21" s="289"/>
-      <c r="E21" s="289"/>
-      <c r="F21" s="290"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="291"/>
+      <c r="D21" s="292"/>
+      <c r="E21" s="292"/>
+      <c r="F21" s="293"/>
       <c r="G21" s="93"/>
       <c r="H21" s="93"/>
       <c r="I21" s="93"/>
@@ -8176,11 +8232,11 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="88"/>
-      <c r="B22" s="292"/>
-      <c r="C22" s="288"/>
-      <c r="D22" s="289"/>
-      <c r="E22" s="289"/>
-      <c r="F22" s="290"/>
+      <c r="B22" s="301"/>
+      <c r="C22" s="291"/>
+      <c r="D22" s="292"/>
+      <c r="E22" s="292"/>
+      <c r="F22" s="293"/>
       <c r="G22" s="93"/>
       <c r="H22" s="93"/>
       <c r="I22" s="93"/>
@@ -8191,11 +8247,11 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="88"/>
-      <c r="B23" s="292"/>
-      <c r="C23" s="288"/>
-      <c r="D23" s="289"/>
-      <c r="E23" s="289"/>
-      <c r="F23" s="290"/>
+      <c r="B23" s="301"/>
+      <c r="C23" s="291"/>
+      <c r="D23" s="292"/>
+      <c r="E23" s="292"/>
+      <c r="F23" s="293"/>
       <c r="G23" s="93"/>
       <c r="H23" s="93"/>
       <c r="I23" s="93"/>
@@ -8206,11 +8262,11 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="88"/>
-      <c r="B24" s="292"/>
-      <c r="C24" s="288"/>
-      <c r="D24" s="289"/>
-      <c r="E24" s="289"/>
-      <c r="F24" s="290"/>
+      <c r="B24" s="301"/>
+      <c r="C24" s="291"/>
+      <c r="D24" s="292"/>
+      <c r="E24" s="292"/>
+      <c r="F24" s="293"/>
       <c r="G24" s="93"/>
       <c r="H24" s="93"/>
       <c r="I24" s="93"/>
@@ -8221,11 +8277,11 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="88"/>
-      <c r="B25" s="292"/>
-      <c r="C25" s="288"/>
-      <c r="D25" s="289"/>
-      <c r="E25" s="289"/>
-      <c r="F25" s="290"/>
+      <c r="B25" s="301"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="292"/>
+      <c r="E25" s="292"/>
+      <c r="F25" s="293"/>
       <c r="G25" s="93"/>
       <c r="H25" s="93"/>
       <c r="I25" s="93"/>
@@ -8236,11 +8292,11 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="88"/>
-      <c r="B26" s="292"/>
-      <c r="C26" s="288"/>
-      <c r="D26" s="289"/>
-      <c r="E26" s="289"/>
-      <c r="F26" s="290"/>
+      <c r="B26" s="301"/>
+      <c r="C26" s="291"/>
+      <c r="D26" s="292"/>
+      <c r="E26" s="292"/>
+      <c r="F26" s="293"/>
       <c r="G26" s="93"/>
       <c r="H26" s="93"/>
       <c r="I26" s="93"/>
@@ -8251,11 +8307,11 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="88"/>
-      <c r="B27" s="292"/>
-      <c r="C27" s="288"/>
-      <c r="D27" s="289"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="290"/>
+      <c r="B27" s="301"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="292"/>
+      <c r="E27" s="292"/>
+      <c r="F27" s="293"/>
       <c r="G27" s="93"/>
       <c r="H27" s="93"/>
       <c r="I27" s="93"/>
@@ -8266,11 +8322,11 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="88"/>
-      <c r="B28" s="292"/>
-      <c r="C28" s="288"/>
-      <c r="D28" s="289"/>
-      <c r="E28" s="289"/>
-      <c r="F28" s="290"/>
+      <c r="B28" s="301"/>
+      <c r="C28" s="291"/>
+      <c r="D28" s="292"/>
+      <c r="E28" s="292"/>
+      <c r="F28" s="293"/>
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
       <c r="I28" s="93"/>
@@ -8281,11 +8337,11 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="88"/>
-      <c r="B29" s="292"/>
-      <c r="C29" s="288"/>
-      <c r="D29" s="289"/>
-      <c r="E29" s="289"/>
-      <c r="F29" s="290"/>
+      <c r="B29" s="301"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="292"/>
+      <c r="E29" s="292"/>
+      <c r="F29" s="293"/>
       <c r="G29" s="93"/>
       <c r="H29" s="93"/>
       <c r="I29" s="93"/>
@@ -8296,11 +8352,11 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="88"/>
-      <c r="B30" s="292"/>
-      <c r="C30" s="288"/>
-      <c r="D30" s="289"/>
-      <c r="E30" s="289"/>
-      <c r="F30" s="290"/>
+      <c r="B30" s="301"/>
+      <c r="C30" s="291"/>
+      <c r="D30" s="292"/>
+      <c r="E30" s="292"/>
+      <c r="F30" s="293"/>
       <c r="G30" s="93"/>
       <c r="H30" s="93"/>
       <c r="I30" s="93"/>
@@ -8311,11 +8367,11 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="88"/>
-      <c r="B31" s="292"/>
-      <c r="C31" s="288"/>
-      <c r="D31" s="289"/>
-      <c r="E31" s="289"/>
-      <c r="F31" s="290"/>
+      <c r="B31" s="301"/>
+      <c r="C31" s="291"/>
+      <c r="D31" s="292"/>
+      <c r="E31" s="292"/>
+      <c r="F31" s="293"/>
       <c r="G31" s="93"/>
       <c r="H31" s="93"/>
       <c r="I31" s="93"/>
@@ -8326,11 +8382,11 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="292"/>
-      <c r="C32" s="288"/>
-      <c r="D32" s="289"/>
-      <c r="E32" s="289"/>
-      <c r="F32" s="290"/>
+      <c r="B32" s="301"/>
+      <c r="C32" s="291"/>
+      <c r="D32" s="292"/>
+      <c r="E32" s="292"/>
+      <c r="F32" s="293"/>
       <c r="G32" s="93"/>
       <c r="H32" s="93"/>
       <c r="I32" s="93"/>
@@ -8341,11 +8397,11 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="292"/>
-      <c r="C33" s="288"/>
-      <c r="D33" s="289"/>
-      <c r="E33" s="289"/>
-      <c r="F33" s="290"/>
+      <c r="B33" s="301"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="292"/>
+      <c r="E33" s="292"/>
+      <c r="F33" s="293"/>
       <c r="G33" s="93"/>
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
@@ -8356,11 +8412,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="293"/>
-      <c r="C34" s="288"/>
-      <c r="D34" s="289"/>
-      <c r="E34" s="289"/>
-      <c r="F34" s="290"/>
+      <c r="B34" s="302"/>
+      <c r="C34" s="291"/>
+      <c r="D34" s="292"/>
+      <c r="E34" s="292"/>
+      <c r="F34" s="293"/>
       <c r="G34" s="93"/>
       <c r="H34" s="93"/>
       <c r="I34" s="93"/>
@@ -8390,12 +8446,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
     <mergeCell ref="B11:B34"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
@@ -8412,13 +8469,12 @@
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8427,6 +8483,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
@@ -8434,15 +8499,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8618,19 +8674,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DACE7C-D4CB-4A9F-B252-0392A2615F01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64BD5AB1-8588-4240-B7B1-347039029B2F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DACE7C-D4CB-4A9F-B252-0392A2615F01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/03_DB設計書/データモデル設計書2023_Aチーム5_31日ヴァージョン.xlsx
+++ b/03_DB設計書/データモデル設計書2023_Aチーム5_31日ヴァージョン.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\abcc_system_sd3e_grpA\03_DB設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECF3A06-7229-4699-8F8E-D14D152B0EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5BAFB7-7AEB-4889-AD3F-A18F33AD74B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{158BE383-CCB0-48EA-A963-29248D96480F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{158BE383-CCB0-48EA-A963-29248D96480F}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="171">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -559,9 +559,6 @@
     <t>threads_id</t>
   </si>
   <si>
-    <t>VARCHAR(100)</t>
-  </si>
-  <si>
     <t>スレッド名</t>
   </si>
   <si>
@@ -818,6 +815,29 @@
     <rPh sb="3" eb="5">
       <t>クワノ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>番地</t>
+    <rPh sb="0" eb="2">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_address1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VARCHARA(8)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>INT(11)</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2510,10 +2530,100 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2531,138 +2641,36 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2678,6 +2686,114 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2693,9 +2809,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2705,97 +2818,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2804,58 +2857,37 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2876,18 +2908,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2896,6 +2916,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2914,15 +2943,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2951,22 +2971,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>586154</xdr:colOff>
+      <xdr:colOff>598714</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>71146</xdr:rowOff>
+      <xdr:rowOff>178837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1917212</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>34338</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638382</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A10D2BA-FA0E-13D0-5D4E-0049AB766A13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D5FB37-FBF9-ABB9-D33F-3C26B151DFF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,8 +3008,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="928077" y="6396723"/>
-          <a:ext cx="4591539" cy="4457038"/>
+          <a:off x="940836" y="6461449"/>
+          <a:ext cx="7286444" cy="4066593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3303,7 +3323,7 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AL29" sqref="AL29"/>
     </sheetView>
   </sheetViews>
@@ -3740,18 +3760,18 @@
       <c r="U3" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="166"/>
-      <c r="W3" s="189">
+      <c r="V3" s="165"/>
+      <c r="W3" s="166">
         <v>45040</v>
       </c>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="166"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="167"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="167"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="167"/>
+      <c r="AE3" s="165"/>
       <c r="AF3" s="142"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -3863,20 +3883,20 @@
       <c r="C7" s="149"/>
       <c r="D7" s="149"/>
       <c r="E7" s="148"/>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="191"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="191"/>
-      <c r="M7" s="191"/>
-      <c r="N7" s="191"/>
-      <c r="O7" s="191"/>
-      <c r="P7" s="191"/>
-      <c r="Q7" s="192"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="170"/>
       <c r="R7" s="142"/>
       <c r="S7" s="142"/>
       <c r="T7" s="142"/>
@@ -3894,86 +3914,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="142"/>
-      <c r="B8" s="193" t="s">
+      <c r="B8" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="199" t="s">
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="200"/>
-      <c r="Q8" s="201"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="178"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="178"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="178"/>
+      <c r="Q8" s="179"/>
       <c r="R8" s="142"/>
       <c r="S8" s="142"/>
       <c r="T8" s="142"/>
       <c r="U8" s="142"/>
       <c r="V8" s="142"/>
-      <c r="W8" s="205" t="s">
+      <c r="W8" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="X8" s="205"/>
-      <c r="Y8" s="205"/>
-      <c r="Z8" s="205" t="s">
+      <c r="X8" s="183"/>
+      <c r="Y8" s="183"/>
+      <c r="Z8" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="205"/>
-      <c r="AB8" s="205"/>
-      <c r="AC8" s="205" t="s">
+      <c r="AA8" s="183"/>
+      <c r="AB8" s="183"/>
+      <c r="AC8" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="AD8" s="205"/>
-      <c r="AE8" s="205"/>
+      <c r="AD8" s="183"/>
+      <c r="AE8" s="183"/>
       <c r="AF8" s="142"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="142"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="203"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="203"/>
-      <c r="O9" s="203"/>
-      <c r="P9" s="203"/>
-      <c r="Q9" s="204"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="182"/>
       <c r="R9" s="142"/>
       <c r="S9" s="142"/>
       <c r="T9" s="142"/>
       <c r="U9" s="142"/>
       <c r="V9" s="142"/>
-      <c r="W9" s="186" t="s">
+      <c r="W9" s="184" t="s">
+        <v>143</v>
+      </c>
+      <c r="X9" s="185"/>
+      <c r="Y9" s="186"/>
+      <c r="Z9" s="184" t="s">
         <v>144</v>
       </c>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="188"/>
-      <c r="Z9" s="186" t="s">
+      <c r="AA9" s="185"/>
+      <c r="AB9" s="186"/>
+      <c r="AC9" s="184" t="s">
         <v>145</v>
       </c>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="188"/>
-      <c r="AC9" s="186" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD9" s="187"/>
-      <c r="AE9" s="188"/>
+      <c r="AD9" s="185"/>
+      <c r="AE9" s="186"/>
       <c r="AF9" s="142"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -3999,15 +4019,15 @@
       <c r="T10" s="142"/>
       <c r="U10" s="142"/>
       <c r="V10" s="142"/>
-      <c r="W10" s="206"/>
-      <c r="X10" s="207"/>
-      <c r="Y10" s="208"/>
-      <c r="Z10" s="206"/>
-      <c r="AA10" s="207"/>
-      <c r="AB10" s="208"/>
-      <c r="AC10" s="206"/>
-      <c r="AD10" s="207"/>
-      <c r="AE10" s="208"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="188"/>
+      <c r="Y10" s="189"/>
+      <c r="Z10" s="187"/>
+      <c r="AA10" s="188"/>
+      <c r="AB10" s="189"/>
+      <c r="AC10" s="187"/>
+      <c r="AD10" s="188"/>
+      <c r="AE10" s="189"/>
       <c r="AF10" s="142"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -4033,15 +4053,15 @@
       <c r="T11" s="142"/>
       <c r="U11" s="142"/>
       <c r="V11" s="142"/>
-      <c r="W11" s="206"/>
-      <c r="X11" s="207"/>
-      <c r="Y11" s="208"/>
-      <c r="Z11" s="206"/>
-      <c r="AA11" s="207"/>
-      <c r="AB11" s="208"/>
-      <c r="AC11" s="206"/>
-      <c r="AD11" s="207"/>
-      <c r="AE11" s="208"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="188"/>
+      <c r="Y11" s="189"/>
+      <c r="Z11" s="187"/>
+      <c r="AA11" s="188"/>
+      <c r="AB11" s="189"/>
+      <c r="AC11" s="187"/>
+      <c r="AD11" s="188"/>
+      <c r="AE11" s="189"/>
       <c r="AF11" s="142"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -4067,15 +4087,15 @@
       <c r="T12" s="146"/>
       <c r="U12" s="146"/>
       <c r="V12" s="146"/>
-      <c r="W12" s="209"/>
-      <c r="X12" s="210"/>
-      <c r="Y12" s="211"/>
-      <c r="Z12" s="209"/>
-      <c r="AA12" s="210"/>
-      <c r="AB12" s="211"/>
-      <c r="AC12" s="209"/>
-      <c r="AD12" s="210"/>
-      <c r="AE12" s="211"/>
+      <c r="W12" s="190"/>
+      <c r="X12" s="191"/>
+      <c r="Y12" s="192"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="191"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="190"/>
+      <c r="AD12" s="191"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="142"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -4170,106 +4190,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="142"/>
-      <c r="B16" s="185" t="s">
+      <c r="B16" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="185"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="185"/>
-      <c r="O16" s="185"/>
-      <c r="P16" s="185"/>
-      <c r="Q16" s="185"/>
-      <c r="R16" s="185"/>
-      <c r="S16" s="185"/>
-      <c r="T16" s="185"/>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
-      <c r="Y16" s="185"/>
-      <c r="Z16" s="185"/>
-      <c r="AA16" s="185"/>
-      <c r="AB16" s="185"/>
-      <c r="AC16" s="185"/>
-      <c r="AD16" s="185"/>
-      <c r="AE16" s="185"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="193"/>
+      <c r="M16" s="193"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="193"/>
+      <c r="S16" s="193"/>
+      <c r="T16" s="193"/>
+      <c r="U16" s="193"/>
+      <c r="V16" s="193"/>
+      <c r="W16" s="193"/>
+      <c r="X16" s="193"/>
+      <c r="Y16" s="193"/>
+      <c r="Z16" s="193"/>
+      <c r="AA16" s="193"/>
+      <c r="AB16" s="193"/>
+      <c r="AC16" s="193"/>
+      <c r="AD16" s="193"/>
+      <c r="AE16" s="193"/>
       <c r="AF16" s="142"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="142"/>
-      <c r="B17" s="185"/>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="185"/>
-      <c r="L17" s="185"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="185"/>
-      <c r="O17" s="185"/>
-      <c r="P17" s="185"/>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185"/>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="185"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="185"/>
-      <c r="AA17" s="185"/>
-      <c r="AB17" s="185"/>
-      <c r="AC17" s="185"/>
-      <c r="AD17" s="185"/>
-      <c r="AE17" s="185"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="193"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="193"/>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="193"/>
+      <c r="S17" s="193"/>
+      <c r="T17" s="193"/>
+      <c r="U17" s="193"/>
+      <c r="V17" s="193"/>
+      <c r="W17" s="193"/>
+      <c r="X17" s="193"/>
+      <c r="Y17" s="193"/>
+      <c r="Z17" s="193"/>
+      <c r="AA17" s="193"/>
+      <c r="AB17" s="193"/>
+      <c r="AC17" s="193"/>
+      <c r="AD17" s="193"/>
+      <c r="AE17" s="193"/>
       <c r="AF17" s="142"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="142"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="185"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="185"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="185"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="185"/>
-      <c r="T18" s="185"/>
-      <c r="U18" s="185"/>
-      <c r="V18" s="185"/>
-      <c r="W18" s="185"/>
-      <c r="X18" s="185"/>
-      <c r="Y18" s="185"/>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="185"/>
-      <c r="AC18" s="185"/>
-      <c r="AD18" s="185"/>
-      <c r="AE18" s="185"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="193"/>
+      <c r="M18" s="193"/>
+      <c r="N18" s="193"/>
+      <c r="O18" s="193"/>
+      <c r="P18" s="193"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="193"/>
+      <c r="S18" s="193"/>
+      <c r="T18" s="193"/>
+      <c r="U18" s="193"/>
+      <c r="V18" s="193"/>
+      <c r="W18" s="193"/>
+      <c r="X18" s="193"/>
+      <c r="Y18" s="193"/>
+      <c r="Z18" s="193"/>
+      <c r="AA18" s="193"/>
+      <c r="AB18" s="193"/>
+      <c r="AC18" s="193"/>
+      <c r="AD18" s="193"/>
+      <c r="AE18" s="193"/>
       <c r="AF18" s="142"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -4411,429 +4431,429 @@
       <c r="B23" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="166"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="165"/>
       <c r="F23" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="165"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="166"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="165"/>
       <c r="J23" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="165"/>
-      <c r="P23" s="165"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="165"/>
-      <c r="S23" s="165"/>
-      <c r="T23" s="165"/>
-      <c r="U23" s="165"/>
-      <c r="V23" s="165"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="165"/>
-      <c r="Y23" s="165"/>
-      <c r="Z23" s="165"/>
-      <c r="AA23" s="165"/>
-      <c r="AB23" s="166"/>
-      <c r="AC23" s="186" t="s">
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="167"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="167"/>
+      <c r="S23" s="167"/>
+      <c r="T23" s="167"/>
+      <c r="U23" s="167"/>
+      <c r="V23" s="167"/>
+      <c r="W23" s="167"/>
+      <c r="X23" s="167"/>
+      <c r="Y23" s="167"/>
+      <c r="Z23" s="167"/>
+      <c r="AA23" s="167"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="AD23" s="187"/>
-      <c r="AE23" s="188"/>
+      <c r="AD23" s="185"/>
+      <c r="AE23" s="186"/>
       <c r="AF23" s="144"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="142"/>
-      <c r="B24" s="182" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="167">
+      <c r="B24" s="194" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="195"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="197">
         <v>45040</v>
       </c>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="170" t="s">
+      <c r="G24" s="198"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="200" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="171"/>
-      <c r="O24" s="171"/>
-      <c r="P24" s="171"/>
-      <c r="Q24" s="171"/>
-      <c r="R24" s="171"/>
-      <c r="S24" s="171"/>
-      <c r="T24" s="171"/>
-      <c r="U24" s="171"/>
-      <c r="V24" s="171"/>
-      <c r="W24" s="171"/>
-      <c r="X24" s="171"/>
-      <c r="Y24" s="171"/>
-      <c r="Z24" s="171"/>
-      <c r="AA24" s="171"/>
-      <c r="AB24" s="171"/>
-      <c r="AC24" s="178" t="s">
+      <c r="K24" s="201"/>
+      <c r="L24" s="201"/>
+      <c r="M24" s="201"/>
+      <c r="N24" s="201"/>
+      <c r="O24" s="201"/>
+      <c r="P24" s="201"/>
+      <c r="Q24" s="201"/>
+      <c r="R24" s="201"/>
+      <c r="S24" s="201"/>
+      <c r="T24" s="201"/>
+      <c r="U24" s="201"/>
+      <c r="V24" s="201"/>
+      <c r="W24" s="201"/>
+      <c r="X24" s="201"/>
+      <c r="Y24" s="201"/>
+      <c r="Z24" s="201"/>
+      <c r="AA24" s="201"/>
+      <c r="AB24" s="201"/>
+      <c r="AC24" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="AD24" s="178"/>
-      <c r="AE24" s="178"/>
+      <c r="AD24" s="202"/>
+      <c r="AE24" s="202"/>
       <c r="AF24" s="142"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="142"/>
       <c r="B25" s="164" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="174">
+        <v>152</v>
+      </c>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="203">
         <v>45041</v>
       </c>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="179"/>
-      <c r="J25" s="170" t="s">
-        <v>157</v>
-      </c>
-      <c r="K25" s="171"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="171"/>
-      <c r="P25" s="171"/>
-      <c r="Q25" s="171"/>
-      <c r="R25" s="171"/>
-      <c r="S25" s="171"/>
-      <c r="T25" s="171"/>
-      <c r="U25" s="171"/>
-      <c r="V25" s="171"/>
-      <c r="W25" s="171"/>
-      <c r="X25" s="171"/>
-      <c r="Y25" s="171"/>
-      <c r="Z25" s="171"/>
-      <c r="AA25" s="171"/>
-      <c r="AB25" s="171"/>
-      <c r="AC25" s="172" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD25" s="172"/>
-      <c r="AE25" s="172"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="200" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="201"/>
+      <c r="L25" s="201"/>
+      <c r="M25" s="201"/>
+      <c r="N25" s="201"/>
+      <c r="O25" s="201"/>
+      <c r="P25" s="201"/>
+      <c r="Q25" s="201"/>
+      <c r="R25" s="201"/>
+      <c r="S25" s="201"/>
+      <c r="T25" s="201"/>
+      <c r="U25" s="201"/>
+      <c r="V25" s="201"/>
+      <c r="W25" s="201"/>
+      <c r="X25" s="201"/>
+      <c r="Y25" s="201"/>
+      <c r="Z25" s="201"/>
+      <c r="AA25" s="201"/>
+      <c r="AB25" s="201"/>
+      <c r="AC25" s="206" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD25" s="206"/>
+      <c r="AE25" s="206"/>
       <c r="AF25" s="142"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="142"/>
       <c r="B26" s="164" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="174">
+        <v>154</v>
+      </c>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="203">
         <v>45042</v>
       </c>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="176" t="s">
+      <c r="G26" s="204"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="176"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="176"/>
-      <c r="N26" s="176"/>
-      <c r="O26" s="176"/>
-      <c r="P26" s="176"/>
-      <c r="Q26" s="176"/>
-      <c r="R26" s="176"/>
-      <c r="S26" s="176"/>
-      <c r="T26" s="176"/>
-      <c r="U26" s="176"/>
-      <c r="V26" s="176"/>
-      <c r="W26" s="176"/>
-      <c r="X26" s="176"/>
-      <c r="Y26" s="176"/>
-      <c r="Z26" s="176"/>
-      <c r="AA26" s="176"/>
-      <c r="AB26" s="176"/>
-      <c r="AC26" s="177" t="s">
+      <c r="K26" s="207"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="207"/>
+      <c r="N26" s="207"/>
+      <c r="O26" s="207"/>
+      <c r="P26" s="207"/>
+      <c r="Q26" s="207"/>
+      <c r="R26" s="207"/>
+      <c r="S26" s="207"/>
+      <c r="T26" s="207"/>
+      <c r="U26" s="207"/>
+      <c r="V26" s="207"/>
+      <c r="W26" s="207"/>
+      <c r="X26" s="207"/>
+      <c r="Y26" s="207"/>
+      <c r="Z26" s="207"/>
+      <c r="AA26" s="207"/>
+      <c r="AB26" s="207"/>
+      <c r="AC26" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="AD26" s="178"/>
-      <c r="AE26" s="178"/>
+      <c r="AD26" s="202"/>
+      <c r="AE26" s="202"/>
       <c r="AF26" s="142"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="142"/>
       <c r="B27" s="164" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="174">
+        <v>155</v>
+      </c>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="203">
         <v>45043</v>
       </c>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="180" t="s">
+      <c r="G27" s="204"/>
+      <c r="H27" s="204"/>
+      <c r="I27" s="205"/>
+      <c r="J27" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="181"/>
-      <c r="L27" s="181"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="181"/>
-      <c r="S27" s="181"/>
-      <c r="T27" s="181"/>
-      <c r="U27" s="181"/>
-      <c r="V27" s="181"/>
-      <c r="W27" s="181"/>
-      <c r="X27" s="181"/>
-      <c r="Y27" s="181"/>
-      <c r="Z27" s="181"/>
-      <c r="AA27" s="181"/>
-      <c r="AB27" s="181"/>
-      <c r="AC27" s="178" t="s">
+      <c r="K27" s="210"/>
+      <c r="L27" s="210"/>
+      <c r="M27" s="210"/>
+      <c r="N27" s="210"/>
+      <c r="O27" s="210"/>
+      <c r="P27" s="210"/>
+      <c r="Q27" s="210"/>
+      <c r="R27" s="210"/>
+      <c r="S27" s="210"/>
+      <c r="T27" s="210"/>
+      <c r="U27" s="210"/>
+      <c r="V27" s="210"/>
+      <c r="W27" s="210"/>
+      <c r="X27" s="210"/>
+      <c r="Y27" s="210"/>
+      <c r="Z27" s="210"/>
+      <c r="AA27" s="210"/>
+      <c r="AB27" s="210"/>
+      <c r="AC27" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="AD27" s="178"/>
-      <c r="AE27" s="178"/>
+      <c r="AD27" s="202"/>
+      <c r="AE27" s="202"/>
       <c r="AF27" s="142"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="142"/>
       <c r="B28" s="164" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="167">
+        <v>157</v>
+      </c>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="197">
         <v>45077</v>
       </c>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="170" t="s">
-        <v>161</v>
-      </c>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171"/>
-      <c r="P28" s="171"/>
-      <c r="Q28" s="171"/>
-      <c r="R28" s="171"/>
-      <c r="S28" s="171"/>
-      <c r="T28" s="171"/>
-      <c r="U28" s="171"/>
-      <c r="V28" s="171"/>
-      <c r="W28" s="171"/>
-      <c r="X28" s="171"/>
-      <c r="Y28" s="171"/>
-      <c r="Z28" s="171"/>
-      <c r="AA28" s="171"/>
-      <c r="AB28" s="171"/>
-      <c r="AC28" s="172" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD28" s="172"/>
-      <c r="AE28" s="172"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="198"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="201"/>
+      <c r="L28" s="201"/>
+      <c r="M28" s="201"/>
+      <c r="N28" s="201"/>
+      <c r="O28" s="201"/>
+      <c r="P28" s="201"/>
+      <c r="Q28" s="201"/>
+      <c r="R28" s="201"/>
+      <c r="S28" s="201"/>
+      <c r="T28" s="201"/>
+      <c r="U28" s="201"/>
+      <c r="V28" s="201"/>
+      <c r="W28" s="201"/>
+      <c r="X28" s="201"/>
+      <c r="Y28" s="201"/>
+      <c r="Z28" s="201"/>
+      <c r="AA28" s="201"/>
+      <c r="AB28" s="201"/>
+      <c r="AC28" s="206" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD28" s="206"/>
+      <c r="AE28" s="206"/>
       <c r="AF28" s="142"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="142"/>
       <c r="B29" s="164" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="197">
+        <v>45077</v>
+      </c>
+      <c r="G29" s="198"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="165"/>
-      <c r="D29" s="165"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="167">
-        <v>45077</v>
-      </c>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="170" t="s">
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
+      <c r="M29" s="201"/>
+      <c r="N29" s="201"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="201"/>
+      <c r="Q29" s="201"/>
+      <c r="R29" s="201"/>
+      <c r="S29" s="201"/>
+      <c r="T29" s="201"/>
+      <c r="U29" s="201"/>
+      <c r="V29" s="201"/>
+      <c r="W29" s="201"/>
+      <c r="X29" s="201"/>
+      <c r="Y29" s="201"/>
+      <c r="Z29" s="201"/>
+      <c r="AA29" s="201"/>
+      <c r="AB29" s="201"/>
+      <c r="AC29" s="206" t="s">
         <v>163</v>
       </c>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
-      <c r="M29" s="171"/>
-      <c r="N29" s="171"/>
-      <c r="O29" s="171"/>
-      <c r="P29" s="171"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="171"/>
-      <c r="S29" s="171"/>
-      <c r="T29" s="171"/>
-      <c r="U29" s="171"/>
-      <c r="V29" s="171"/>
-      <c r="W29" s="171"/>
-      <c r="X29" s="171"/>
-      <c r="Y29" s="171"/>
-      <c r="Z29" s="171"/>
-      <c r="AA29" s="171"/>
-      <c r="AB29" s="171"/>
-      <c r="AC29" s="172" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD29" s="172"/>
-      <c r="AE29" s="172"/>
+      <c r="AD29" s="206"/>
+      <c r="AE29" s="206"/>
       <c r="AF29" s="142"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="142"/>
       <c r="B30" s="164"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
-      <c r="M30" s="171"/>
-      <c r="N30" s="171"/>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="171"/>
-      <c r="AC30" s="173"/>
-      <c r="AD30" s="173"/>
-      <c r="AE30" s="173"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="197"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="198"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="201"/>
+      <c r="L30" s="201"/>
+      <c r="M30" s="201"/>
+      <c r="N30" s="201"/>
+      <c r="O30" s="201"/>
+      <c r="P30" s="201"/>
+      <c r="Q30" s="201"/>
+      <c r="R30" s="201"/>
+      <c r="S30" s="201"/>
+      <c r="T30" s="201"/>
+      <c r="U30" s="201"/>
+      <c r="V30" s="201"/>
+      <c r="W30" s="201"/>
+      <c r="X30" s="201"/>
+      <c r="Y30" s="201"/>
+      <c r="Z30" s="201"/>
+      <c r="AA30" s="201"/>
+      <c r="AB30" s="201"/>
+      <c r="AC30" s="211"/>
+      <c r="AD30" s="211"/>
+      <c r="AE30" s="211"/>
       <c r="AF30" s="142"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="142"/>
       <c r="B31" s="164"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="171"/>
-      <c r="P31" s="171"/>
-      <c r="Q31" s="171"/>
-      <c r="R31" s="171"/>
-      <c r="S31" s="171"/>
-      <c r="T31" s="171"/>
-      <c r="U31" s="171"/>
-      <c r="V31" s="171"/>
-      <c r="W31" s="171"/>
-      <c r="X31" s="171"/>
-      <c r="Y31" s="171"/>
-      <c r="Z31" s="171"/>
-      <c r="AA31" s="171"/>
-      <c r="AB31" s="171"/>
-      <c r="AC31" s="172"/>
-      <c r="AD31" s="172"/>
-      <c r="AE31" s="172"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="201"/>
+      <c r="L31" s="201"/>
+      <c r="M31" s="201"/>
+      <c r="N31" s="201"/>
+      <c r="O31" s="201"/>
+      <c r="P31" s="201"/>
+      <c r="Q31" s="201"/>
+      <c r="R31" s="201"/>
+      <c r="S31" s="201"/>
+      <c r="T31" s="201"/>
+      <c r="U31" s="201"/>
+      <c r="V31" s="201"/>
+      <c r="W31" s="201"/>
+      <c r="X31" s="201"/>
+      <c r="Y31" s="201"/>
+      <c r="Z31" s="201"/>
+      <c r="AA31" s="201"/>
+      <c r="AB31" s="201"/>
+      <c r="AC31" s="206"/>
+      <c r="AD31" s="206"/>
+      <c r="AE31" s="206"/>
       <c r="AF31" s="142"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="142"/>
       <c r="B32" s="164"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="171"/>
-      <c r="L32" s="171"/>
-      <c r="M32" s="171"/>
-      <c r="N32" s="171"/>
-      <c r="O32" s="171"/>
-      <c r="P32" s="171"/>
-      <c r="Q32" s="171"/>
-      <c r="R32" s="171"/>
-      <c r="S32" s="171"/>
-      <c r="T32" s="171"/>
-      <c r="U32" s="171"/>
-      <c r="V32" s="171"/>
-      <c r="W32" s="171"/>
-      <c r="X32" s="171"/>
-      <c r="Y32" s="171"/>
-      <c r="Z32" s="171"/>
-      <c r="AA32" s="171"/>
-      <c r="AB32" s="171"/>
-      <c r="AC32" s="172"/>
-      <c r="AD32" s="172"/>
-      <c r="AE32" s="172"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="201"/>
+      <c r="L32" s="201"/>
+      <c r="M32" s="201"/>
+      <c r="N32" s="201"/>
+      <c r="O32" s="201"/>
+      <c r="P32" s="201"/>
+      <c r="Q32" s="201"/>
+      <c r="R32" s="201"/>
+      <c r="S32" s="201"/>
+      <c r="T32" s="201"/>
+      <c r="U32" s="201"/>
+      <c r="V32" s="201"/>
+      <c r="W32" s="201"/>
+      <c r="X32" s="201"/>
+      <c r="Y32" s="201"/>
+      <c r="Z32" s="201"/>
+      <c r="AA32" s="201"/>
+      <c r="AB32" s="201"/>
+      <c r="AC32" s="206"/>
+      <c r="AD32" s="206"/>
+      <c r="AE32" s="206"/>
       <c r="AF32" s="142"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="142"/>
       <c r="B33" s="164"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="171"/>
-      <c r="M33" s="171"/>
-      <c r="N33" s="171"/>
-      <c r="O33" s="171"/>
-      <c r="P33" s="171"/>
-      <c r="Q33" s="171"/>
-      <c r="R33" s="171"/>
-      <c r="S33" s="171"/>
-      <c r="T33" s="171"/>
-      <c r="U33" s="171"/>
-      <c r="V33" s="171"/>
-      <c r="W33" s="171"/>
-      <c r="X33" s="171"/>
-      <c r="Y33" s="171"/>
-      <c r="Z33" s="171"/>
-      <c r="AA33" s="171"/>
-      <c r="AB33" s="171"/>
-      <c r="AC33" s="172"/>
-      <c r="AD33" s="172"/>
-      <c r="AE33" s="172"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="198"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="201"/>
+      <c r="L33" s="201"/>
+      <c r="M33" s="201"/>
+      <c r="N33" s="201"/>
+      <c r="O33" s="201"/>
+      <c r="P33" s="201"/>
+      <c r="Q33" s="201"/>
+      <c r="R33" s="201"/>
+      <c r="S33" s="201"/>
+      <c r="T33" s="201"/>
+      <c r="U33" s="201"/>
+      <c r="V33" s="201"/>
+      <c r="W33" s="201"/>
+      <c r="X33" s="201"/>
+      <c r="Y33" s="201"/>
+      <c r="Z33" s="201"/>
+      <c r="AA33" s="201"/>
+      <c r="AB33" s="201"/>
+      <c r="AC33" s="206"/>
+      <c r="AD33" s="206"/>
+      <c r="AE33" s="206"/>
       <c r="AF33" s="142"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -4871,6 +4891,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:AE3"/>
     <mergeCell ref="F7:Q7"/>
@@ -4882,51 +4947,6 @@
     <mergeCell ref="W9:Y12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="AC9:AE12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -4946,7 +4966,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="15"/>
@@ -4971,10 +4991,10 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="215"/>
+      <c r="B2" s="220"/>
       <c r="C2" s="130" t="s">
         <v>6</v>
       </c>
@@ -4987,10 +5007,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="215"/>
+      <c r="B3" s="220"/>
       <c r="C3" s="122" t="s">
         <v>24</v>
       </c>
@@ -5003,10 +5023,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="214" t="s">
+      <c r="A4" s="219" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="215"/>
+      <c r="B4" s="220"/>
       <c r="C4" s="130" t="s">
         <v>27</v>
       </c>
@@ -5015,28 +5035,28 @@
         <v>12</v>
       </c>
       <c r="F4" s="123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="215"/>
+      <c r="B5" s="220"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="214" t="s">
+      <c r="A6" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="215"/>
+      <c r="B6" s="220"/>
       <c r="C6" s="130" t="s">
         <v>31</v>
       </c>
@@ -5079,10 +5099,10 @@
       <c r="D9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="212" t="s">
+      <c r="E9" s="217" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="213"/>
+      <c r="F9" s="218"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="16">
@@ -5097,10 +5117,10 @@
       <c r="D10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="218" t="s">
+      <c r="E10" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="219"/>
+      <c r="F10" s="215"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="16">
@@ -5115,10 +5135,10 @@
       <c r="D11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="218" t="s">
+      <c r="E11" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="219"/>
+      <c r="F11" s="215"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="16">
@@ -5133,50 +5153,50 @@
       <c r="D12" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="218" t="s">
+      <c r="E12" s="214" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="219"/>
+      <c r="F12" s="215"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="128"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="220"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="216"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="125"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="220"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="216"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="106"/>
       <c r="B15" s="106"/>
       <c r="C15" s="106"/>
       <c r="D15" s="106"/>
-      <c r="E15" s="216"/>
-      <c r="F15" s="217"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="213"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="106"/>
       <c r="B16" s="106"/>
       <c r="C16" s="106"/>
       <c r="D16" s="106"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="217"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="213"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="106"/>
       <c r="B17" s="106"/>
       <c r="C17" s="106"/>
       <c r="D17" s="106"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="217"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="213"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -5418,6 +5438,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E10:F10"/>
@@ -5426,12 +5452,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5447,7 +5467,9 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
   <cols>
@@ -5532,7 +5554,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
@@ -5550,42 +5572,42 @@
         <v>53</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="223" t="s">
+      <c r="C6" s="255" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="225"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="257"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="223" t="s">
+      <c r="C7" s="255" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="225"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="257"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="223" t="s">
+      <c r="C8" s="255" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="225"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="257"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -5606,10 +5628,10 @@
       <c r="B10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="239" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="258"/>
       <c r="E10" s="36" t="s">
         <v>62</v>
       </c>
@@ -5630,10 +5652,10 @@
       <c r="B11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="228" t="s">
+      <c r="C11" s="259" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="229"/>
+      <c r="D11" s="260"/>
       <c r="E11" s="40" t="s">
         <v>68</v>
       </c>
@@ -5652,10 +5674,10 @@
       <c r="B12" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="253" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="222"/>
+      <c r="D12" s="254"/>
       <c r="E12" s="40" t="s">
         <v>73</v>
       </c>
@@ -5672,10 +5694,10 @@
       <c r="B13" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="230" t="s">
+      <c r="C13" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="231"/>
+      <c r="D13" s="250"/>
       <c r="E13" s="45" t="s">
         <v>76</v>
       </c>
@@ -5692,10 +5714,10 @@
       <c r="B14" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="230" t="s">
+      <c r="C14" s="249" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="231"/>
+      <c r="D14" s="250"/>
       <c r="E14" s="45" t="s">
         <v>79</v>
       </c>
@@ -5712,10 +5734,10 @@
       <c r="B15" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="230" t="s">
+      <c r="C15" s="249" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="231"/>
+      <c r="D15" s="250"/>
       <c r="E15" s="45" t="s">
         <v>82</v>
       </c>
@@ -5732,10 +5754,10 @@
       <c r="B16" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="230" t="s">
+      <c r="C16" s="249" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="231"/>
+      <c r="D16" s="250"/>
       <c r="E16" s="50" t="s">
         <v>85</v>
       </c>
@@ -5752,10 +5774,10 @@
       <c r="B17" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="230" t="s">
+      <c r="C17" s="249" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="231"/>
+      <c r="D17" s="250"/>
       <c r="E17" s="50" t="s">
         <v>88</v>
       </c>
@@ -5772,10 +5794,10 @@
       <c r="B18" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="230" t="s">
+      <c r="C18" s="249" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="231"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="50" t="s">
         <v>91</v>
       </c>
@@ -5786,20 +5808,30 @@
       <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="230"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="A19" s="48">
+        <v>9</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="249" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" s="250"/>
+      <c r="E19" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>169</v>
+      </c>
       <c r="G19" s="51"/>
       <c r="H19" s="52"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="230"/>
-      <c r="D20" s="231"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="250"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -5808,8 +5840,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="230"/>
-      <c r="D21" s="231"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="250"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
@@ -5818,8 +5850,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="230"/>
-      <c r="D22" s="231"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="250"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
@@ -5828,8 +5860,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="231"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="250"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
@@ -5838,8 +5870,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="231"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="250"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
@@ -5848,8 +5880,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="230"/>
-      <c r="D25" s="231"/>
+      <c r="C25" s="249"/>
+      <c r="D25" s="250"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
@@ -5858,8 +5890,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="231"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="250"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
@@ -5868,8 +5900,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="230"/>
-      <c r="D27" s="231"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="250"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
@@ -5878,8 +5910,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="231"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="250"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
@@ -5888,8 +5920,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="230"/>
-      <c r="D29" s="231"/>
+      <c r="C29" s="249"/>
+      <c r="D29" s="250"/>
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
@@ -5898,8 +5930,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="53"/>
       <c r="B30" s="54"/>
-      <c r="C30" s="237"/>
-      <c r="D30" s="238"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="226"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
       <c r="G30" s="56"/>
@@ -5931,10 +5963,10 @@
       <c r="A33" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="239" t="s">
+      <c r="B33" s="236" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="240"/>
+      <c r="C33" s="238"/>
       <c r="D33" s="62" t="s">
         <v>94</v>
       </c>
@@ -5949,41 +5981,41 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="38"/>
-      <c r="B34" s="241"/>
-      <c r="C34" s="242"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="245"/>
+      <c r="B34" s="251"/>
+      <c r="C34" s="252"/>
+      <c r="D34" s="241"/>
+      <c r="E34" s="242"/>
+      <c r="F34" s="243"/>
       <c r="G34" s="41"/>
       <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="232"/>
-      <c r="C35" s="233"/>
-      <c r="D35" s="234"/>
-      <c r="E35" s="235"/>
-      <c r="F35" s="236"/>
+      <c r="B35" s="244"/>
+      <c r="C35" s="245"/>
+      <c r="D35" s="233"/>
+      <c r="E35" s="234"/>
+      <c r="F35" s="235"/>
       <c r="G35" s="46"/>
       <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="43"/>
-      <c r="B36" s="232"/>
-      <c r="C36" s="233"/>
-      <c r="D36" s="234"/>
-      <c r="E36" s="235"/>
-      <c r="F36" s="236"/>
+      <c r="B36" s="244"/>
+      <c r="C36" s="245"/>
+      <c r="D36" s="233"/>
+      <c r="E36" s="234"/>
+      <c r="F36" s="235"/>
       <c r="G36" s="46"/>
       <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="43"/>
-      <c r="B37" s="232"/>
-      <c r="C37" s="233"/>
-      <c r="D37" s="234"/>
-      <c r="E37" s="235"/>
-      <c r="F37" s="236"/>
+      <c r="B37" s="244"/>
+      <c r="C37" s="245"/>
+      <c r="D37" s="233"/>
+      <c r="E37" s="234"/>
+      <c r="F37" s="235"/>
       <c r="G37" s="46"/>
       <c r="H37" s="47"/>
     </row>
@@ -5991,9 +6023,9 @@
       <c r="A38" s="53"/>
       <c r="B38" s="246"/>
       <c r="C38" s="247"/>
-      <c r="D38" s="237"/>
-      <c r="E38" s="248"/>
-      <c r="F38" s="238"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="225"/>
+      <c r="F38" s="226"/>
       <c r="G38" s="56"/>
       <c r="H38" s="57"/>
     </row>
@@ -6026,15 +6058,15 @@
       <c r="B41" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="239" t="s">
+      <c r="C41" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="249"/>
-      <c r="E41" s="240"/>
-      <c r="F41" s="239" t="s">
+      <c r="D41" s="237"/>
+      <c r="E41" s="238"/>
+      <c r="F41" s="236" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="250"/>
+      <c r="G41" s="248"/>
       <c r="H41" s="66" t="s">
         <v>99</v>
       </c>
@@ -6042,51 +6074,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="67"/>
       <c r="B42" s="68"/>
-      <c r="C42" s="243"/>
-      <c r="D42" s="244"/>
-      <c r="E42" s="245"/>
-      <c r="F42" s="243"/>
-      <c r="G42" s="245"/>
+      <c r="C42" s="241"/>
+      <c r="D42" s="242"/>
+      <c r="E42" s="243"/>
+      <c r="F42" s="241"/>
+      <c r="G42" s="243"/>
       <c r="H42" s="69"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="70"/>
       <c r="B43" s="71"/>
-      <c r="C43" s="234"/>
-      <c r="D43" s="235"/>
-      <c r="E43" s="236"/>
-      <c r="F43" s="234"/>
-      <c r="G43" s="236"/>
+      <c r="C43" s="233"/>
+      <c r="D43" s="234"/>
+      <c r="E43" s="235"/>
+      <c r="F43" s="233"/>
+      <c r="G43" s="235"/>
       <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="70"/>
       <c r="B44" s="71"/>
-      <c r="C44" s="234"/>
-      <c r="D44" s="235"/>
-      <c r="E44" s="236"/>
-      <c r="F44" s="234"/>
-      <c r="G44" s="236"/>
+      <c r="C44" s="233"/>
+      <c r="D44" s="234"/>
+      <c r="E44" s="235"/>
+      <c r="F44" s="233"/>
+      <c r="G44" s="235"/>
       <c r="H44" s="72"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="70"/>
       <c r="B45" s="71"/>
-      <c r="C45" s="234"/>
-      <c r="D45" s="235"/>
-      <c r="E45" s="236"/>
-      <c r="F45" s="234"/>
-      <c r="G45" s="236"/>
+      <c r="C45" s="233"/>
+      <c r="D45" s="234"/>
+      <c r="E45" s="235"/>
+      <c r="F45" s="233"/>
+      <c r="G45" s="235"/>
       <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="73"/>
       <c r="B46" s="74"/>
-      <c r="C46" s="237"/>
-      <c r="D46" s="248"/>
-      <c r="E46" s="238"/>
-      <c r="F46" s="251"/>
-      <c r="G46" s="252"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="225"/>
+      <c r="E46" s="226"/>
+      <c r="F46" s="227"/>
+      <c r="G46" s="228"/>
       <c r="H46" s="75"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -6118,15 +6150,15 @@
       <c r="B49" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="239" t="s">
+      <c r="C49" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="249"/>
-      <c r="E49" s="240"/>
-      <c r="F49" s="226" t="s">
+      <c r="D49" s="237"/>
+      <c r="E49" s="238"/>
+      <c r="F49" s="239" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="253"/>
+      <c r="G49" s="240"/>
       <c r="H49" s="37" t="s">
         <v>102</v>
       </c>
@@ -6134,15 +6166,15 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="76"/>
       <c r="B50" s="77"/>
-      <c r="C50" s="257" t="s">
+      <c r="C50" s="229" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="258"/>
-      <c r="E50" s="259"/>
-      <c r="F50" s="257" t="s">
+      <c r="D50" s="230"/>
+      <c r="E50" s="231"/>
+      <c r="F50" s="229" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="259"/>
+      <c r="G50" s="231"/>
       <c r="H50" s="78" t="s">
         <v>103</v>
       </c>
@@ -6150,15 +6182,15 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="103"/>
       <c r="B51" s="104"/>
-      <c r="C51" s="260" t="s">
+      <c r="C51" s="232" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="255"/>
-      <c r="E51" s="256"/>
-      <c r="F51" s="254" t="s">
+      <c r="D51" s="222"/>
+      <c r="E51" s="223"/>
+      <c r="F51" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="256"/>
+      <c r="G51" s="223"/>
       <c r="H51" s="105" t="s">
         <v>106</v>
       </c>
@@ -6166,63 +6198,53 @@
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="103"/>
       <c r="B52" s="104"/>
-      <c r="C52" s="260"/>
-      <c r="D52" s="255"/>
-      <c r="E52" s="256"/>
-      <c r="F52" s="254"/>
-      <c r="G52" s="256"/>
+      <c r="C52" s="232"/>
+      <c r="D52" s="222"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="105"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="103"/>
       <c r="B53" s="104"/>
-      <c r="C53" s="254"/>
-      <c r="D53" s="255"/>
-      <c r="E53" s="256"/>
-      <c r="F53" s="254"/>
-      <c r="G53" s="256"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="222"/>
+      <c r="E53" s="223"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="105"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="73"/>
       <c r="B54" s="74"/>
-      <c r="C54" s="237"/>
-      <c r="D54" s="248"/>
-      <c r="E54" s="238"/>
-      <c r="F54" s="251"/>
-      <c r="G54" s="252"/>
+      <c r="C54" s="224"/>
+      <c r="D54" s="225"/>
+      <c r="E54" s="226"/>
+      <c r="F54" s="227"/>
+      <c r="G54" s="228"/>
       <c r="H54" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -6236,24 +6258,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6268,7 +6300,9 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
   <cols>
@@ -6353,7 +6387,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
@@ -6371,42 +6405,42 @@
         <v>53</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="223" t="s">
+      <c r="C6" s="255" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="225"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="257"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="223" t="s">
+      <c r="C7" s="255" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="225"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="257"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="223" t="s">
+      <c r="C8" s="255" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="225"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="257"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -6427,10 +6461,10 @@
       <c r="B10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="226" t="s">
+      <c r="C10" s="239" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="227"/>
+      <c r="D10" s="258"/>
       <c r="E10" s="36" t="s">
         <v>62</v>
       </c>
@@ -6451,12 +6485,12 @@
       <c r="B11" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="263" t="s">
+      <c r="C11" s="279" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="264"/>
+      <c r="D11" s="280"/>
       <c r="E11" s="40" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>69</v>
@@ -6471,12 +6505,12 @@
         <v>2</v>
       </c>
       <c r="B12" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="272" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="261" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="262"/>
+      <c r="D12" s="273"/>
       <c r="E12" s="45" t="s">
         <v>76</v>
       </c>
@@ -6491,12 +6525,12 @@
         <v>3</v>
       </c>
       <c r="B13" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="272" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="261" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="262"/>
+      <c r="D13" s="273"/>
       <c r="E13" s="50" t="s">
         <v>68</v>
       </c>
@@ -6505,7 +6539,7 @@
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
@@ -6513,14 +6547,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="265" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="266"/>
+      <c r="C14" s="274" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="275"/>
       <c r="E14" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" s="50" t="s">
         <v>69</v>
@@ -6531,8 +6565,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="268"/>
+      <c r="C15" s="276"/>
+      <c r="D15" s="277"/>
       <c r="E15" s="162"/>
       <c r="F15" s="161"/>
       <c r="G15" s="46"/>
@@ -6541,8 +6575,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="230"/>
-      <c r="D16" s="269"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="278"/>
       <c r="E16" s="102"/>
       <c r="F16" s="100"/>
       <c r="G16" s="51"/>
@@ -6551,8 +6585,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="230"/>
-      <c r="D17" s="231"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="250"/>
       <c r="E17" s="101"/>
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
@@ -6561,8 +6595,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="230"/>
-      <c r="D18" s="231"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
@@ -6571,8 +6605,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="230"/>
-      <c r="D19" s="231"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="250"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
@@ -6581,8 +6615,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="230"/>
-      <c r="D20" s="231"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="250"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -6591,8 +6625,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="230"/>
-      <c r="D21" s="231"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="250"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
@@ -6601,8 +6635,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="230"/>
-      <c r="D22" s="231"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="250"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
@@ -6611,8 +6645,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="231"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="250"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
@@ -6621,8 +6655,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="231"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="250"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
@@ -6631,8 +6665,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="230"/>
-      <c r="D25" s="231"/>
+      <c r="C25" s="249"/>
+      <c r="D25" s="250"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
@@ -6641,8 +6675,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="231"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="250"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
@@ -6651,8 +6685,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="230"/>
-      <c r="D27" s="231"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="250"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
@@ -6661,8 +6695,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="231"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="250"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
@@ -6671,8 +6705,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="230"/>
-      <c r="D29" s="231"/>
+      <c r="C29" s="249"/>
+      <c r="D29" s="250"/>
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
@@ -6681,8 +6715,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="53"/>
       <c r="B30" s="54"/>
-      <c r="C30" s="237"/>
-      <c r="D30" s="238"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="226"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
       <c r="G30" s="56"/>
@@ -6714,10 +6748,10 @@
       <c r="A33" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="239" t="s">
+      <c r="B33" s="236" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="240"/>
+      <c r="C33" s="238"/>
       <c r="D33" s="62" t="s">
         <v>94</v>
       </c>
@@ -6732,41 +6766,41 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="38"/>
-      <c r="B34" s="241"/>
-      <c r="C34" s="242"/>
-      <c r="D34" s="243"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="245"/>
+      <c r="B34" s="251"/>
+      <c r="C34" s="252"/>
+      <c r="D34" s="241"/>
+      <c r="E34" s="242"/>
+      <c r="F34" s="243"/>
       <c r="G34" s="41"/>
       <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="232"/>
-      <c r="C35" s="233"/>
-      <c r="D35" s="234"/>
-      <c r="E35" s="235"/>
-      <c r="F35" s="236"/>
+      <c r="B35" s="244"/>
+      <c r="C35" s="245"/>
+      <c r="D35" s="233"/>
+      <c r="E35" s="234"/>
+      <c r="F35" s="235"/>
       <c r="G35" s="46"/>
       <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="43"/>
-      <c r="B36" s="232"/>
-      <c r="C36" s="233"/>
-      <c r="D36" s="234"/>
-      <c r="E36" s="235"/>
-      <c r="F36" s="236"/>
+      <c r="B36" s="244"/>
+      <c r="C36" s="245"/>
+      <c r="D36" s="233"/>
+      <c r="E36" s="234"/>
+      <c r="F36" s="235"/>
       <c r="G36" s="46"/>
       <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="43"/>
-      <c r="B37" s="232"/>
-      <c r="C37" s="233"/>
-      <c r="D37" s="234"/>
-      <c r="E37" s="235"/>
-      <c r="F37" s="236"/>
+      <c r="B37" s="244"/>
+      <c r="C37" s="245"/>
+      <c r="D37" s="233"/>
+      <c r="E37" s="234"/>
+      <c r="F37" s="235"/>
       <c r="G37" s="46"/>
       <c r="H37" s="47"/>
     </row>
@@ -6774,9 +6808,9 @@
       <c r="A38" s="53"/>
       <c r="B38" s="246"/>
       <c r="C38" s="247"/>
-      <c r="D38" s="237"/>
-      <c r="E38" s="248"/>
-      <c r="F38" s="238"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="225"/>
+      <c r="F38" s="226"/>
       <c r="G38" s="56"/>
       <c r="H38" s="57"/>
     </row>
@@ -6809,15 +6843,15 @@
       <c r="B41" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="239" t="s">
+      <c r="C41" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="249"/>
-      <c r="E41" s="240"/>
-      <c r="F41" s="239" t="s">
+      <c r="D41" s="237"/>
+      <c r="E41" s="238"/>
+      <c r="F41" s="236" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="250"/>
+      <c r="G41" s="248"/>
       <c r="H41" s="66" t="s">
         <v>99</v>
       </c>
@@ -6825,15 +6859,15 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="111"/>
       <c r="B42" s="108"/>
-      <c r="C42" s="270" t="s">
+      <c r="C42" s="261" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="271"/>
-      <c r="E42" s="272"/>
-      <c r="F42" s="270" t="s">
+      <c r="D42" s="262"/>
+      <c r="E42" s="263"/>
+      <c r="F42" s="261" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="272"/>
+      <c r="G42" s="263"/>
       <c r="H42" s="112" t="s">
         <v>103</v>
       </c>
@@ -6841,21 +6875,21 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="109"/>
       <c r="B43" s="110"/>
-      <c r="C43" s="273"/>
-      <c r="D43" s="274"/>
-      <c r="E43" s="275"/>
-      <c r="F43" s="273"/>
-      <c r="G43" s="275"/>
+      <c r="C43" s="264"/>
+      <c r="D43" s="265"/>
+      <c r="E43" s="266"/>
+      <c r="F43" s="264"/>
+      <c r="G43" s="266"/>
       <c r="H43" s="113"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="114"/>
       <c r="B44" s="115"/>
-      <c r="C44" s="276"/>
-      <c r="D44" s="277"/>
-      <c r="E44" s="278"/>
-      <c r="F44" s="279"/>
-      <c r="G44" s="280"/>
+      <c r="C44" s="267"/>
+      <c r="D44" s="268"/>
+      <c r="E44" s="269"/>
+      <c r="F44" s="270"/>
+      <c r="G44" s="271"/>
       <c r="H44" s="116"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
@@ -6887,15 +6921,15 @@
       <c r="B47" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="239" t="s">
+      <c r="C47" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="249"/>
-      <c r="E47" s="240"/>
-      <c r="F47" s="226" t="s">
+      <c r="D47" s="237"/>
+      <c r="E47" s="238"/>
+      <c r="F47" s="239" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="253"/>
+      <c r="G47" s="240"/>
       <c r="H47" s="37" t="s">
         <v>102</v>
       </c>
@@ -6903,85 +6937,79 @@
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="76"/>
       <c r="B48" s="77"/>
-      <c r="C48" s="257" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="258"/>
-      <c r="E48" s="259"/>
-      <c r="F48" s="257" t="s">
+      <c r="C48" s="229" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="230"/>
+      <c r="E48" s="231"/>
+      <c r="F48" s="229" t="s">
         <v>104</v>
       </c>
-      <c r="G48" s="259"/>
+      <c r="G48" s="231"/>
       <c r="H48" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="103"/>
       <c r="B49" s="104"/>
-      <c r="C49" s="254"/>
-      <c r="D49" s="255"/>
-      <c r="E49" s="256"/>
-      <c r="F49" s="254"/>
-      <c r="G49" s="256"/>
+      <c r="C49" s="221"/>
+      <c r="D49" s="222"/>
+      <c r="E49" s="223"/>
+      <c r="F49" s="221"/>
+      <c r="G49" s="223"/>
       <c r="H49" s="105"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="103"/>
       <c r="B50" s="104"/>
-      <c r="C50" s="254"/>
-      <c r="D50" s="255"/>
-      <c r="E50" s="256"/>
-      <c r="F50" s="254"/>
-      <c r="G50" s="256"/>
+      <c r="C50" s="221"/>
+      <c r="D50" s="222"/>
+      <c r="E50" s="223"/>
+      <c r="F50" s="221"/>
+      <c r="G50" s="223"/>
       <c r="H50" s="105"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="103"/>
       <c r="B51" s="104"/>
-      <c r="C51" s="254"/>
-      <c r="D51" s="255"/>
-      <c r="E51" s="256"/>
-      <c r="F51" s="254"/>
-      <c r="G51" s="256"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="222"/>
+      <c r="E51" s="223"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="223"/>
       <c r="H51" s="105"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="73"/>
       <c r="B52" s="74"/>
-      <c r="C52" s="237"/>
-      <c r="D52" s="248"/>
-      <c r="E52" s="238"/>
-      <c r="F52" s="251"/>
-      <c r="G52" s="252"/>
+      <c r="C52" s="224"/>
+      <c r="D52" s="225"/>
+      <c r="E52" s="226"/>
+      <c r="F52" s="227"/>
+      <c r="G52" s="228"/>
       <c r="H52" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -6995,24 +7023,30 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7027,8 +7061,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18"/>
@@ -7114,7 +7148,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1">
@@ -7132,42 +7166,42 @@
         <v>53</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="223" t="s">
+      <c r="C6" s="255" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="225"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="257"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="223" t="s">
+      <c r="C7" s="255" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="225"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="257"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="223" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="225"/>
+      <c r="C8" s="255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="257"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="34" t="s">
@@ -7188,10 +7222,10 @@
       <c r="B10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="283" t="s">
+      <c r="C10" s="287" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="284"/>
+      <c r="D10" s="288"/>
       <c r="E10" s="36" t="s">
         <v>62</v>
       </c>
@@ -7210,14 +7244,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="134" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="289" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="290"/>
+        <v>116</v>
+      </c>
+      <c r="C11" s="283" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="284"/>
       <c r="E11" s="40" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="F11" s="133" t="s">
         <v>69</v>
@@ -7234,19 +7268,19 @@
       <c r="B12" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="285" t="s">
+      <c r="C12" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="286"/>
+      <c r="D12" s="290"/>
       <c r="E12" s="40" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="F12" s="129" t="s">
         <v>69</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
@@ -7254,12 +7288,12 @@
         <v>3</v>
       </c>
       <c r="B13" s="136" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="285" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="281" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="282"/>
+      <c r="D13" s="286"/>
       <c r="E13" s="129" t="s">
         <v>68</v>
       </c>
@@ -7268,7 +7302,7 @@
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
@@ -7276,14 +7310,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="281" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="287" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="288"/>
+      <c r="D14" s="282"/>
       <c r="E14" s="131" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" s="130" t="s">
         <v>69</v>
@@ -7296,14 +7330,14 @@
         <v>5</v>
       </c>
       <c r="B15" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="249" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="230" t="s">
+      <c r="D15" s="250"/>
+      <c r="E15" s="50" t="s">
         <v>124</v>
-      </c>
-      <c r="D15" s="231"/>
-      <c r="E15" s="50" t="s">
-        <v>125</v>
       </c>
       <c r="F15" s="132" t="s">
         <v>69</v>
@@ -7314,8 +7348,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
-      <c r="C16" s="230"/>
-      <c r="D16" s="231"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="250"/>
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
       <c r="G16" s="51"/>
@@ -7324,8 +7358,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="230"/>
-      <c r="D17" s="231"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="250"/>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
@@ -7334,8 +7368,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="230"/>
-      <c r="D18" s="231"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
@@ -7344,8 +7378,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
-      <c r="C19" s="230"/>
-      <c r="D19" s="231"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="250"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
@@ -7354,8 +7388,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
-      <c r="C20" s="230"/>
-      <c r="D20" s="231"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="250"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -7364,8 +7398,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
-      <c r="C21" s="230"/>
-      <c r="D21" s="231"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="250"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
@@ -7374,8 +7408,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
-      <c r="C22" s="230"/>
-      <c r="D22" s="231"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="250"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
@@ -7384,8 +7418,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="231"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="250"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
@@ -7394,8 +7428,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="231"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="250"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
@@ -7404,8 +7438,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="230"/>
-      <c r="D25" s="231"/>
+      <c r="C25" s="249"/>
+      <c r="D25" s="250"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
@@ -7414,8 +7448,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="230"/>
-      <c r="D26" s="231"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="250"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
@@ -7424,8 +7458,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
-      <c r="C27" s="230"/>
-      <c r="D27" s="231"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="250"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
@@ -7434,8 +7468,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="231"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="250"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
@@ -7444,8 +7478,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A29" s="53"/>
       <c r="B29" s="54"/>
-      <c r="C29" s="237"/>
-      <c r="D29" s="238"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="226"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
       <c r="G29" s="56"/>
@@ -7477,10 +7511,10 @@
       <c r="A32" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="239" t="s">
+      <c r="B32" s="236" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="240"/>
+      <c r="C32" s="238"/>
       <c r="D32" s="62" t="s">
         <v>94</v>
       </c>
@@ -7495,41 +7529,41 @@
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1">
       <c r="A33" s="38"/>
-      <c r="B33" s="241"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="245"/>
+      <c r="B33" s="251"/>
+      <c r="C33" s="252"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="243"/>
       <c r="G33" s="41"/>
       <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="43"/>
-      <c r="B34" s="232"/>
-      <c r="C34" s="233"/>
-      <c r="D34" s="234"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="236"/>
+      <c r="B34" s="244"/>
+      <c r="C34" s="245"/>
+      <c r="D34" s="233"/>
+      <c r="E34" s="234"/>
+      <c r="F34" s="235"/>
       <c r="G34" s="46"/>
       <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="43"/>
-      <c r="B35" s="232"/>
-      <c r="C35" s="233"/>
-      <c r="D35" s="234"/>
-      <c r="E35" s="235"/>
-      <c r="F35" s="236"/>
+      <c r="B35" s="244"/>
+      <c r="C35" s="245"/>
+      <c r="D35" s="233"/>
+      <c r="E35" s="234"/>
+      <c r="F35" s="235"/>
       <c r="G35" s="46"/>
       <c r="H35" s="47"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="43"/>
-      <c r="B36" s="232"/>
-      <c r="C36" s="233"/>
-      <c r="D36" s="234"/>
-      <c r="E36" s="235"/>
-      <c r="F36" s="236"/>
+      <c r="B36" s="244"/>
+      <c r="C36" s="245"/>
+      <c r="D36" s="233"/>
+      <c r="E36" s="234"/>
+      <c r="F36" s="235"/>
       <c r="G36" s="46"/>
       <c r="H36" s="47"/>
     </row>
@@ -7537,9 +7571,9 @@
       <c r="A37" s="53"/>
       <c r="B37" s="246"/>
       <c r="C37" s="247"/>
-      <c r="D37" s="237"/>
-      <c r="E37" s="248"/>
-      <c r="F37" s="238"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="225"/>
+      <c r="F37" s="226"/>
       <c r="G37" s="56"/>
       <c r="H37" s="57"/>
     </row>
@@ -7572,15 +7606,15 @@
       <c r="B40" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="239" t="s">
+      <c r="C40" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="249"/>
-      <c r="E40" s="240"/>
-      <c r="F40" s="239" t="s">
+      <c r="D40" s="237"/>
+      <c r="E40" s="238"/>
+      <c r="F40" s="236" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="250"/>
+      <c r="G40" s="248"/>
       <c r="H40" s="66" t="s">
         <v>99</v>
       </c>
@@ -7588,15 +7622,15 @@
     <row r="41" spans="1:8" ht="20.25" customHeight="1">
       <c r="A41" s="76"/>
       <c r="B41" s="77"/>
-      <c r="C41" s="257" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="258"/>
-      <c r="E41" s="259"/>
-      <c r="F41" s="257" t="s">
+      <c r="C41" s="229" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="230"/>
+      <c r="E41" s="231"/>
+      <c r="F41" s="229" t="s">
         <v>105</v>
       </c>
-      <c r="G41" s="259"/>
+      <c r="G41" s="231"/>
       <c r="H41" s="78" t="s">
         <v>108</v>
       </c>
@@ -7604,15 +7638,15 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="103"/>
       <c r="B42" s="104"/>
-      <c r="C42" s="254" t="s">
+      <c r="C42" s="221" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="255"/>
-      <c r="E42" s="256"/>
-      <c r="F42" s="260" t="s">
+      <c r="D42" s="222"/>
+      <c r="E42" s="223"/>
+      <c r="F42" s="232" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="256"/>
+      <c r="G42" s="223"/>
       <c r="H42" s="160" t="s">
         <v>103</v>
       </c>
@@ -7620,21 +7654,21 @@
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="103"/>
       <c r="B43" s="104"/>
-      <c r="C43" s="254"/>
-      <c r="D43" s="255"/>
-      <c r="E43" s="256"/>
-      <c r="F43" s="254"/>
-      <c r="G43" s="256"/>
+      <c r="C43" s="221"/>
+      <c r="D43" s="222"/>
+      <c r="E43" s="223"/>
+      <c r="F43" s="221"/>
+      <c r="G43" s="223"/>
       <c r="H43" s="163"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A44" s="73"/>
       <c r="B44" s="74"/>
-      <c r="C44" s="237"/>
-      <c r="D44" s="248"/>
-      <c r="E44" s="238"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="252"/>
+      <c r="C44" s="224"/>
+      <c r="D44" s="225"/>
+      <c r="E44" s="226"/>
+      <c r="F44" s="227"/>
+      <c r="G44" s="228"/>
       <c r="H44" s="75"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
@@ -7666,15 +7700,15 @@
       <c r="B47" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="239" t="s">
+      <c r="C47" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="249"/>
-      <c r="E47" s="240"/>
-      <c r="F47" s="226" t="s">
+      <c r="D47" s="237"/>
+      <c r="E47" s="238"/>
+      <c r="F47" s="239" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="253"/>
+      <c r="G47" s="240"/>
       <c r="H47" s="37" t="s">
         <v>102</v>
       </c>
@@ -7682,45 +7716,83 @@
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
       <c r="A48" s="70"/>
       <c r="B48" s="71"/>
-      <c r="C48" s="234"/>
-      <c r="D48" s="235"/>
-      <c r="E48" s="236"/>
-      <c r="F48" s="234"/>
-      <c r="G48" s="236"/>
+      <c r="C48" s="233"/>
+      <c r="D48" s="234"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="233"/>
+      <c r="G48" s="235"/>
       <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1">
       <c r="A49" s="70"/>
       <c r="B49" s="71"/>
-      <c r="C49" s="234"/>
-      <c r="D49" s="235"/>
-      <c r="E49" s="236"/>
-      <c r="F49" s="234"/>
-      <c r="G49" s="236"/>
+      <c r="C49" s="233"/>
+      <c r="D49" s="234"/>
+      <c r="E49" s="235"/>
+      <c r="F49" s="233"/>
+      <c r="G49" s="235"/>
       <c r="H49" s="72"/>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="70"/>
       <c r="B50" s="71"/>
-      <c r="C50" s="234"/>
-      <c r="D50" s="235"/>
-      <c r="E50" s="236"/>
-      <c r="F50" s="234"/>
-      <c r="G50" s="236"/>
+      <c r="C50" s="233"/>
+      <c r="D50" s="234"/>
+      <c r="E50" s="235"/>
+      <c r="F50" s="233"/>
+      <c r="G50" s="235"/>
       <c r="H50" s="72"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A51" s="73"/>
       <c r="B51" s="74"/>
-      <c r="C51" s="237"/>
-      <c r="D51" s="248"/>
-      <c r="E51" s="238"/>
-      <c r="F51" s="251"/>
-      <c r="G51" s="252"/>
+      <c r="C51" s="224"/>
+      <c r="D51" s="225"/>
+      <c r="E51" s="226"/>
+      <c r="F51" s="227"/>
+      <c r="G51" s="228"/>
       <c r="H51" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C11:D11"/>
@@ -7736,45 +7808,7 @@
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="C42:E42"/>
     <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7809,7 +7843,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -7840,16 +7874,16 @@
         <v>21</v>
       </c>
       <c r="I2" s="139" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="294">
+      <c r="L2" s="297">
         <v>45040</v>
       </c>
-      <c r="M2" s="295"/>
+      <c r="M2" s="298"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="84" t="s">
@@ -7867,16 +7901,16 @@
         <v>29</v>
       </c>
       <c r="I3" s="139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="294">
+      <c r="L3" s="297">
         <v>45077</v>
       </c>
-      <c r="M3" s="295"/>
+      <c r="M3" s="298"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="82" t="s">
@@ -7896,10 +7930,10 @@
       <c r="K4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="296" t="s">
-        <v>152</v>
-      </c>
-      <c r="M4" s="295"/>
+      <c r="L4" s="299" t="s">
+        <v>151</v>
+      </c>
+      <c r="M4" s="298"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="9"/>
@@ -7917,10 +7951,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="130" t="s">
         <v>127</v>
-      </c>
-      <c r="B6" s="130" t="s">
-        <v>128</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -7939,7 +7973,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -7960,14 +7994,14 @@
     <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="88"/>
       <c r="F9" s="89"/>
-      <c r="G9" s="297" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="298"/>
-      <c r="I9" s="298"/>
-      <c r="J9" s="298"/>
-      <c r="K9" s="298"/>
-      <c r="L9" s="299"/>
+      <c r="G9" s="300" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="301"/>
+      <c r="I9" s="301"/>
+      <c r="J9" s="301"/>
+      <c r="K9" s="301"/>
+      <c r="L9" s="302"/>
       <c r="M9" s="89"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -7987,7 +8021,7 @@
         <v>47</v>
       </c>
       <c r="J10" s="93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" s="93"/>
       <c r="L10" s="93"/>
@@ -7995,26 +8029,26 @@
     </row>
     <row r="11" spans="1:13" ht="21.75" customHeight="1">
       <c r="A11" s="88"/>
-      <c r="B11" s="300" t="s">
+      <c r="B11" s="294" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="291" t="s">
         <v>132</v>
-      </c>
-      <c r="C11" s="291" t="s">
-        <v>133</v>
       </c>
       <c r="D11" s="292"/>
       <c r="E11" s="292"/>
       <c r="F11" s="293"/>
       <c r="G11" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="93" t="s">
-        <v>135</v>
-      </c>
       <c r="I11" s="93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J11" s="93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K11" s="93"/>
       <c r="L11" s="93"/>
@@ -8022,24 +8056,24 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="88"/>
-      <c r="B12" s="301"/>
+      <c r="B12" s="295"/>
       <c r="C12" s="291" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="292"/>
       <c r="E12" s="292"/>
       <c r="F12" s="293"/>
       <c r="G12" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" s="93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I12" s="93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J12" s="117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K12" s="117"/>
       <c r="L12" s="93"/>
@@ -8047,24 +8081,24 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="88"/>
-      <c r="B13" s="301"/>
+      <c r="B13" s="295"/>
       <c r="C13" s="291" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="292"/>
       <c r="E13" s="292"/>
       <c r="F13" s="293"/>
       <c r="G13" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I13" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J13" s="93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K13" s="93"/>
       <c r="L13" s="93"/>
@@ -8072,24 +8106,24 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="88"/>
-      <c r="B14" s="301"/>
+      <c r="B14" s="295"/>
       <c r="C14" s="291" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="292"/>
       <c r="E14" s="292"/>
       <c r="F14" s="293"/>
       <c r="G14" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I14" s="93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J14" s="93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K14" s="93"/>
       <c r="L14" s="93"/>
@@ -8097,24 +8131,24 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="88"/>
-      <c r="B15" s="301"/>
+      <c r="B15" s="295"/>
       <c r="C15" s="291" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="292"/>
       <c r="E15" s="292"/>
       <c r="F15" s="293"/>
       <c r="G15" s="93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H15" s="93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I15" s="93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J15" s="93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K15" s="93"/>
       <c r="L15" s="93"/>
@@ -8122,24 +8156,24 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="88"/>
-      <c r="B16" s="301"/>
+      <c r="B16" s="295"/>
       <c r="C16" s="291" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" s="292"/>
       <c r="E16" s="292"/>
       <c r="F16" s="293"/>
       <c r="G16" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" s="93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I16" s="93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J16" s="93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K16" s="93"/>
       <c r="L16" s="93"/>
@@ -8147,24 +8181,24 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="88"/>
-      <c r="B17" s="301"/>
+      <c r="B17" s="295"/>
       <c r="C17" s="291" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="292"/>
       <c r="E17" s="292"/>
       <c r="F17" s="293"/>
       <c r="G17" s="93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H17" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="93" t="s">
-        <v>135</v>
-      </c>
       <c r="J17" s="93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K17" s="93"/>
       <c r="L17" s="93"/>
@@ -8172,7 +8206,7 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="88"/>
-      <c r="B18" s="301"/>
+      <c r="B18" s="295"/>
       <c r="C18" s="291"/>
       <c r="D18" s="292"/>
       <c r="E18" s="292"/>
@@ -8187,7 +8221,7 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="88"/>
-      <c r="B19" s="301"/>
+      <c r="B19" s="295"/>
       <c r="C19" s="291"/>
       <c r="D19" s="292"/>
       <c r="E19" s="292"/>
@@ -8202,7 +8236,7 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="88"/>
-      <c r="B20" s="301"/>
+      <c r="B20" s="295"/>
       <c r="C20" s="291"/>
       <c r="D20" s="292"/>
       <c r="E20" s="292"/>
@@ -8217,7 +8251,7 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="88"/>
-      <c r="B21" s="301"/>
+      <c r="B21" s="295"/>
       <c r="C21" s="291"/>
       <c r="D21" s="292"/>
       <c r="E21" s="292"/>
@@ -8232,7 +8266,7 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="88"/>
-      <c r="B22" s="301"/>
+      <c r="B22" s="295"/>
       <c r="C22" s="291"/>
       <c r="D22" s="292"/>
       <c r="E22" s="292"/>
@@ -8247,7 +8281,7 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="88"/>
-      <c r="B23" s="301"/>
+      <c r="B23" s="295"/>
       <c r="C23" s="291"/>
       <c r="D23" s="292"/>
       <c r="E23" s="292"/>
@@ -8262,7 +8296,7 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="88"/>
-      <c r="B24" s="301"/>
+      <c r="B24" s="295"/>
       <c r="C24" s="291"/>
       <c r="D24" s="292"/>
       <c r="E24" s="292"/>
@@ -8277,7 +8311,7 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="88"/>
-      <c r="B25" s="301"/>
+      <c r="B25" s="295"/>
       <c r="C25" s="291"/>
       <c r="D25" s="292"/>
       <c r="E25" s="292"/>
@@ -8292,7 +8326,7 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="88"/>
-      <c r="B26" s="301"/>
+      <c r="B26" s="295"/>
       <c r="C26" s="291"/>
       <c r="D26" s="292"/>
       <c r="E26" s="292"/>
@@ -8307,7 +8341,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="88"/>
-      <c r="B27" s="301"/>
+      <c r="B27" s="295"/>
       <c r="C27" s="291"/>
       <c r="D27" s="292"/>
       <c r="E27" s="292"/>
@@ -8322,7 +8356,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="88"/>
-      <c r="B28" s="301"/>
+      <c r="B28" s="295"/>
       <c r="C28" s="291"/>
       <c r="D28" s="292"/>
       <c r="E28" s="292"/>
@@ -8337,7 +8371,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="88"/>
-      <c r="B29" s="301"/>
+      <c r="B29" s="295"/>
       <c r="C29" s="291"/>
       <c r="D29" s="292"/>
       <c r="E29" s="292"/>
@@ -8352,7 +8386,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="88"/>
-      <c r="B30" s="301"/>
+      <c r="B30" s="295"/>
       <c r="C30" s="291"/>
       <c r="D30" s="292"/>
       <c r="E30" s="292"/>
@@ -8367,7 +8401,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="88"/>
-      <c r="B31" s="301"/>
+      <c r="B31" s="295"/>
       <c r="C31" s="291"/>
       <c r="D31" s="292"/>
       <c r="E31" s="292"/>
@@ -8382,7 +8416,7 @@
     </row>
     <row r="32" spans="1:13" ht="23.25" customHeight="1">
       <c r="A32" s="88"/>
-      <c r="B32" s="301"/>
+      <c r="B32" s="295"/>
       <c r="C32" s="291"/>
       <c r="D32" s="292"/>
       <c r="E32" s="292"/>
@@ -8397,7 +8431,7 @@
     </row>
     <row r="33" spans="1:13" ht="23.25" customHeight="1">
       <c r="A33" s="88"/>
-      <c r="B33" s="301"/>
+      <c r="B33" s="295"/>
       <c r="C33" s="291"/>
       <c r="D33" s="292"/>
       <c r="E33" s="292"/>
@@ -8412,7 +8446,7 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="88"/>
-      <c r="B34" s="302"/>
+      <c r="B34" s="296"/>
       <c r="C34" s="291"/>
       <c r="D34" s="292"/>
       <c r="E34" s="292"/>
@@ -8446,13 +8480,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="B11:B34"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
@@ -8469,12 +8502,13 @@
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8483,15 +8517,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c8a424a7-50d7-4cd5-819d-65031445e48f">
@@ -8499,6 +8524,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8674,19 +8708,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DACE7C-D4CB-4A9F-B252-0392A2615F01}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64BD5AB1-8588-4240-B7B1-347039029B2F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64BD5AB1-8588-4240-B7B1-347039029B2F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02DACE7C-D4CB-4A9F-B252-0392A2615F01}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
